--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3142,13 +3142,23 @@
       <c r="AH20" s="12"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+    <row r="21" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B21" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="R21" s="12"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3168,13 +3168,23 @@
       <c r="AH21" s="12"/>
       <c r="AK21" s="14"/>
     </row>
-    <row r="22" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+    <row r="22" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="R22" s="14"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="14"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3192,25 +3192,45 @@
       <c r="AH22" s="12"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+    <row r="23" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="AC23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B24" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="R24" s="12"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="12"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -512,9 +512,9 @@
   <dimension ref="A1:AMJ377"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3238,24 +3238,44 @@
       <c r="AH24" s="12"/>
       <c r="AK24" s="14"/>
     </row>
-    <row r="25" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+    <row r="25" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AE25" s="9"/>
     </row>
-    <row r="26" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+    <row r="26" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AE26" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3280,13 +3280,23 @@
       <c r="AC26" s="9"/>
       <c r="AE26" s="9"/>
     </row>
-    <row r="27" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+    <row r="27" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AE27" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3301,24 +3301,44 @@
       <c r="AC27" s="9"/>
       <c r="AE27" s="9"/>
     </row>
-    <row r="28" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+    <row r="28" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AE28" s="9"/>
     </row>
-    <row r="29" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+    <row r="29" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AE29" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -512,9 +512,9 @@
   <dimension ref="A1:AMJ377"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3343,46 +3343,86 @@
       <c r="AC29" s="9"/>
       <c r="AE29" s="9"/>
     </row>
-    <row r="30" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+    <row r="30" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S30" s="9"/>
       <c r="AC30" s="9"/>
       <c r="AE30" s="9"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="31" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AE31" s="9"/>
     </row>
-    <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+    <row r="32" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AE32" s="9"/>
     </row>
-    <row r="33" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AE33" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3427,35 +3427,65 @@
       <c r="AC33" s="9"/>
       <c r="AE33" s="9"/>
     </row>
-    <row r="34" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AE34" s="9"/>
     </row>
-    <row r="35" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+    <row r="35" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AE35" s="9"/>
     </row>
-    <row r="36" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+    <row r="36" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AE36" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3490,24 +3490,44 @@
       <c r="AC36" s="9"/>
       <c r="AE36" s="9"/>
     </row>
-    <row r="37" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+    <row r="37" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
-    <row r="38" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+    <row r="38" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AE38" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -514,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3532,13 +3532,23 @@
       <c r="AC38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+    <row r="39" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AE39" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -512,9 +512,9 @@
   <dimension ref="A1:AMJ377"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3553,13 +3553,23 @@
       <c r="AC39" s="9"/>
       <c r="AE39" s="9"/>
     </row>
-    <row r="40" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+    <row r="40" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AE40" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -512,9 +512,9 @@
   <dimension ref="A1:AMJ377"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3574,189 +3574,359 @@
       <c r="AC40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
-    <row r="41" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+    <row r="41" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
-    <row r="42" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+    <row r="42" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AE42" s="9"/>
     </row>
-    <row r="43" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+    <row r="43" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
-    <row r="44" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+    <row r="44" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
-    <row r="45" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+    <row r="45" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S45" s="9"/>
       <c r="AC45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
-    <row r="46" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+    <row r="46" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
-    <row r="47" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+    <row r="47" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S47" s="9"/>
       <c r="AC47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S48" s="9"/>
       <c r="AC48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
-    <row r="49" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+    <row r="49" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S49" s="9"/>
       <c r="AC49" s="9"/>
       <c r="AE49" s="9"/>
     </row>
-    <row r="50" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+    <row r="50" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S50" s="9"/>
       <c r="AC50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
-    <row r="51" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+    <row r="51" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S51" s="9"/>
       <c r="AC51" s="9"/>
       <c r="AE51" s="9"/>
     </row>
-    <row r="52" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+    <row r="52" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S52" s="9"/>
       <c r="AC52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="53" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+    <row r="53" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="54" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+    <row r="54" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AE54" s="9"/>
     </row>
-    <row r="55" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+    <row r="55" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S55" s="9"/>
       <c r="AC55" s="9"/>
       <c r="AE55" s="9"/>
     </row>
-    <row r="56" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+    <row r="56" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AE56" s="9"/>
     </row>
-    <row r="57" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+    <row r="57" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="S57" s="9"/>
       <c r="AC57" s="9"/>
       <c r="AE57" s="9"/>

--- a/nevergiveup/Excel/Item_道具表.xlsx
+++ b/nevergiveup/Excel/Item_道具表.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E2AB4B-1309-4F86-B6B5-655858037EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,109 +22,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
-    <t>int</t>
+    <t xml:space="preserve">int</t>
   </si>
   <si>
-    <t>string</t>
+    <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t>id</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t>itemType</t>
+    <t xml:space="preserve">itemType</t>
   </si>
   <si>
-    <t>itemTypeid</t>
+    <t xml:space="preserve">itemTypeid</t>
   </si>
   <si>
-    <t>itemLevel</t>
+    <t xml:space="preserve">itemLevel</t>
   </si>
   <si>
-    <t>itemImgGuid</t>
+    <t xml:space="preserve">itemImgGuid</t>
   </si>
   <si>
-    <t>nameKey</t>
+    <t xml:space="preserve">nameKey</t>
   </si>
   <si>
-    <t>道具id</t>
+    <t xml:space="preserve">道具id</t>
   </si>
   <si>
-    <t>道具类型
+    <t xml:space="preserve">道具类型
 1.货币
 2.塔的卡牌
 3.科技点
 4.经验</t>
   </si>
   <si>
-    <t>链接到对应表（如果有）中的id</t>
+    <t xml:space="preserve">链接到对应表（如果有）中的id</t>
   </si>
   <si>
-    <t>道具品质</t>
+    <t xml:space="preserve">道具品质</t>
   </si>
   <si>
-    <t>道具的图片的guid</t>
+    <t xml:space="preserve">道具的图片的guid</t>
   </si>
   <si>
-    <t>道具名</t>
+    <t xml:space="preserve">道具名</t>
   </si>
   <si>
-    <t>Language</t>
+    <t xml:space="preserve">Language</t>
   </si>
   <si>
-    <t>Item_nameKey_2</t>
+    <t xml:space="preserve">Item_nameKey_1</t>
   </si>
   <si>
-    <t>Item_nameKey_3</t>
+    <t xml:space="preserve">Item_nameKey_2</t>
   </si>
   <si>
-    <t>Tower_name_1</t>
+    <t xml:space="preserve">Item_nameKey_3</t>
   </si>
   <si>
-    <t>Tower_name_2</t>
+    <t xml:space="preserve">Tower_name_1</t>
   </si>
   <si>
-    <t>Tower_name_3</t>
+    <t xml:space="preserve">Tower_name_2</t>
   </si>
   <si>
-    <t>Tower_name_4</t>
+    <t xml:space="preserve">Tower_name_3</t>
   </si>
   <si>
-    <t>Tower_name_5</t>
+    <t xml:space="preserve">Tower_name_4</t>
   </si>
   <si>
-    <t>Tower_name_6</t>
+    <t xml:space="preserve">Tower_name_5</t>
   </si>
   <si>
-    <t>Tower_name_7</t>
+    <t xml:space="preserve">Tower_name_6</t>
   </si>
   <si>
-    <t>Tower_name_8</t>
+    <t xml:space="preserve">Tower_name_7</t>
   </si>
   <si>
-    <t>Tower_name_9</t>
+    <t xml:space="preserve">Tower_name_8</t>
   </si>
   <si>
-    <t>Tower_name_10</t>
+    <t xml:space="preserve">Tower_name_9</t>
   </si>
   <si>
-    <t>Tower_name_11</t>
+    <t xml:space="preserve">Tower_name_10</t>
   </si>
   <si>
-    <t>Tower_name_12</t>
+    <t xml:space="preserve">Tower_name_11</t>
   </si>
   <si>
-    <t>Item_nameKey_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t xml:space="preserve">Tower_name_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -140,7 +156,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -162,20 +178,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -196,99 +199,127 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="16">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -347,78 +378,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -471,61 +486,63 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ377"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AR377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="54" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="2" customWidth="1"/>
-    <col min="13" max="15" width="18" style="2" customWidth="1"/>
-    <col min="16" max="17" width="16" style="2" customWidth="1"/>
-    <col min="18" max="18" width="27.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="31.75" customWidth="1"/>
-    <col min="20" max="20" width="27.875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="117.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="46.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="96.125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="36.25" style="2" customWidth="1"/>
-    <col min="25" max="25" width="64.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="36.625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="22.125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="27.25" customWidth="1"/>
-    <col min="30" max="30" width="34" style="2" customWidth="1"/>
-    <col min="31" max="31" width="31.75" customWidth="1"/>
-    <col min="32" max="32" width="19.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="23.375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="16" style="2" customWidth="1"/>
-    <col min="35" max="36" width="12.5" style="2"/>
-    <col min="37" max="37" width="17" style="2" customWidth="1"/>
-    <col min="38" max="41" width="12.5" style="2"/>
-    <col min="42" max="42" width="15.75" style="2" customWidth="1"/>
-    <col min="43" max="43" width="31.25" style="2" customWidth="1"/>
-    <col min="44" max="44" width="16.75" style="2" customWidth="1"/>
-    <col min="45" max="45" width="18.75" style="2" customWidth="1"/>
-    <col min="46" max="1024" width="12.5" style="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="2" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="2" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="117.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="96.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="64.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="35" style="2" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="38" style="2" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="31.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="18.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="46" style="2" width="12.51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -583,7 +600,7 @@
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
     </row>
-    <row r="2" spans="1:1024" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -641,7 +658,7 @@
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" ht="95.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -699,7 +716,7 @@
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -712,22 +729,22 @@
       <c r="AC4" s="8"/>
       <c r="AE4" s="8"/>
     </row>
-    <row r="5" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>376847</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -736,2112 +753,82 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="12"/>
       <c r="AH5" s="11"/>
-      <c r="AK5" s="13"/>
-    </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="AK5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="D6" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="9" t="n">
         <v>376826</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AD6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-      <c r="BD6"/>
-      <c r="BE6"/>
-      <c r="BF6"/>
-      <c r="BG6"/>
-      <c r="BH6"/>
-      <c r="BI6"/>
-      <c r="BJ6"/>
-      <c r="BK6"/>
-      <c r="BL6"/>
-      <c r="BM6"/>
-      <c r="BN6"/>
-      <c r="BO6"/>
-      <c r="BP6"/>
-      <c r="BQ6"/>
-      <c r="BR6"/>
-      <c r="BS6"/>
-      <c r="BT6"/>
-      <c r="BU6"/>
-      <c r="BV6"/>
-      <c r="BW6"/>
-      <c r="BX6"/>
-      <c r="BY6"/>
-      <c r="BZ6"/>
-      <c r="CA6"/>
-      <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6"/>
-      <c r="CE6"/>
-      <c r="CF6"/>
-      <c r="CG6"/>
-      <c r="CH6"/>
-      <c r="CI6"/>
-      <c r="CJ6"/>
-      <c r="CK6"/>
-      <c r="CL6"/>
-      <c r="CM6"/>
-      <c r="CN6"/>
-      <c r="CO6"/>
-      <c r="CP6"/>
-      <c r="CQ6"/>
-      <c r="CR6"/>
-      <c r="CS6"/>
-      <c r="CT6"/>
-      <c r="CU6"/>
-      <c r="CV6"/>
-      <c r="CW6"/>
-      <c r="CX6"/>
-      <c r="CY6"/>
-      <c r="CZ6"/>
-      <c r="DA6"/>
-      <c r="DB6"/>
-      <c r="DC6"/>
-      <c r="DD6"/>
-      <c r="DE6"/>
-      <c r="DF6"/>
-      <c r="DG6"/>
-      <c r="DH6"/>
-      <c r="DI6"/>
-      <c r="DJ6"/>
-      <c r="DK6"/>
-      <c r="DL6"/>
-      <c r="DM6"/>
-      <c r="DN6"/>
-      <c r="DO6"/>
-      <c r="DP6"/>
-      <c r="DQ6"/>
-      <c r="DR6"/>
-      <c r="DS6"/>
-      <c r="DT6"/>
-      <c r="DU6"/>
-      <c r="DV6"/>
-      <c r="DW6"/>
-      <c r="DX6"/>
-      <c r="DY6"/>
-      <c r="DZ6"/>
-      <c r="EA6"/>
-      <c r="EB6"/>
-      <c r="EC6"/>
-      <c r="ED6"/>
-      <c r="EE6"/>
-      <c r="EF6"/>
-      <c r="EG6"/>
-      <c r="EH6"/>
-      <c r="EI6"/>
-      <c r="EJ6"/>
-      <c r="EK6"/>
-      <c r="EL6"/>
-      <c r="EM6"/>
-      <c r="EN6"/>
-      <c r="EO6"/>
-      <c r="EP6"/>
-      <c r="EQ6"/>
-      <c r="ER6"/>
-      <c r="ES6"/>
-      <c r="ET6"/>
-      <c r="EU6"/>
-      <c r="EV6"/>
-      <c r="EW6"/>
-      <c r="EX6"/>
-      <c r="EY6"/>
-      <c r="EZ6"/>
-      <c r="FA6"/>
-      <c r="FB6"/>
-      <c r="FC6"/>
-      <c r="FD6"/>
-      <c r="FE6"/>
-      <c r="FF6"/>
-      <c r="FG6"/>
-      <c r="FH6"/>
-      <c r="FI6"/>
-      <c r="FJ6"/>
-      <c r="FK6"/>
-      <c r="FL6"/>
-      <c r="FM6"/>
-      <c r="FN6"/>
-      <c r="FO6"/>
-      <c r="FP6"/>
-      <c r="FQ6"/>
-      <c r="FR6"/>
-      <c r="FS6"/>
-      <c r="FT6"/>
-      <c r="FU6"/>
-      <c r="FV6"/>
-      <c r="FW6"/>
-      <c r="FX6"/>
-      <c r="FY6"/>
-      <c r="FZ6"/>
-      <c r="GA6"/>
-      <c r="GB6"/>
-      <c r="GC6"/>
-      <c r="GD6"/>
-      <c r="GE6"/>
-      <c r="GF6"/>
-      <c r="GG6"/>
-      <c r="GH6"/>
-      <c r="GI6"/>
-      <c r="GJ6"/>
-      <c r="GK6"/>
-      <c r="GL6"/>
-      <c r="GM6"/>
-      <c r="GN6"/>
-      <c r="GO6"/>
-      <c r="GP6"/>
-      <c r="GQ6"/>
-      <c r="GR6"/>
-      <c r="GS6"/>
-      <c r="GT6"/>
-      <c r="GU6"/>
-      <c r="GV6"/>
-      <c r="GW6"/>
-      <c r="GX6"/>
-      <c r="GY6"/>
-      <c r="GZ6"/>
-      <c r="HA6"/>
-      <c r="HB6"/>
-      <c r="HC6"/>
-      <c r="HD6"/>
-      <c r="HE6"/>
-      <c r="HF6"/>
-      <c r="HG6"/>
-      <c r="HH6"/>
-      <c r="HI6"/>
-      <c r="HJ6"/>
-      <c r="HK6"/>
-      <c r="HL6"/>
-      <c r="HM6"/>
-      <c r="HN6"/>
-      <c r="HO6"/>
-      <c r="HP6"/>
-      <c r="HQ6"/>
-      <c r="HR6"/>
-      <c r="HS6"/>
-      <c r="HT6"/>
-      <c r="HU6"/>
-      <c r="HV6"/>
-      <c r="HW6"/>
-      <c r="HX6"/>
-      <c r="HY6"/>
-      <c r="HZ6"/>
-      <c r="IA6"/>
-      <c r="IB6"/>
-      <c r="IC6"/>
-      <c r="ID6"/>
-      <c r="IE6"/>
-      <c r="IF6"/>
-      <c r="IG6"/>
-      <c r="IH6"/>
-      <c r="II6"/>
-      <c r="IJ6"/>
-      <c r="IK6"/>
-      <c r="IL6"/>
-      <c r="IM6"/>
-      <c r="IN6"/>
-      <c r="IO6"/>
-      <c r="IP6"/>
-      <c r="IQ6"/>
-      <c r="IR6"/>
-      <c r="IS6"/>
-      <c r="IT6"/>
-      <c r="IU6"/>
-      <c r="IV6"/>
-      <c r="IW6"/>
-      <c r="IX6"/>
-      <c r="IY6"/>
-      <c r="IZ6"/>
-      <c r="JA6"/>
-      <c r="JB6"/>
-      <c r="JC6"/>
-      <c r="JD6"/>
-      <c r="JE6"/>
-      <c r="JF6"/>
-      <c r="JG6"/>
-      <c r="JH6"/>
-      <c r="JI6"/>
-      <c r="JJ6"/>
-      <c r="JK6"/>
-      <c r="JL6"/>
-      <c r="JM6"/>
-      <c r="JN6"/>
-      <c r="JO6"/>
-      <c r="JP6"/>
-      <c r="JQ6"/>
-      <c r="JR6"/>
-      <c r="JS6"/>
-      <c r="JT6"/>
-      <c r="JU6"/>
-      <c r="JV6"/>
-      <c r="JW6"/>
-      <c r="JX6"/>
-      <c r="JY6"/>
-      <c r="JZ6"/>
-      <c r="KA6"/>
-      <c r="KB6"/>
-      <c r="KC6"/>
-      <c r="KD6"/>
-      <c r="KE6"/>
-      <c r="KF6"/>
-      <c r="KG6"/>
-      <c r="KH6"/>
-      <c r="KI6"/>
-      <c r="KJ6"/>
-      <c r="KK6"/>
-      <c r="KL6"/>
-      <c r="KM6"/>
-      <c r="KN6"/>
-      <c r="KO6"/>
-      <c r="KP6"/>
-      <c r="KQ6"/>
-      <c r="KR6"/>
-      <c r="KS6"/>
-      <c r="KT6"/>
-      <c r="KU6"/>
-      <c r="KV6"/>
-      <c r="KW6"/>
-      <c r="KX6"/>
-      <c r="KY6"/>
-      <c r="KZ6"/>
-      <c r="LA6"/>
-      <c r="LB6"/>
-      <c r="LC6"/>
-      <c r="LD6"/>
-      <c r="LE6"/>
-      <c r="LF6"/>
-      <c r="LG6"/>
-      <c r="LH6"/>
-      <c r="LI6"/>
-      <c r="LJ6"/>
-      <c r="LK6"/>
-      <c r="LL6"/>
-      <c r="LM6"/>
-      <c r="LN6"/>
-      <c r="LO6"/>
-      <c r="LP6"/>
-      <c r="LQ6"/>
-      <c r="LR6"/>
-      <c r="LS6"/>
-      <c r="LT6"/>
-      <c r="LU6"/>
-      <c r="LV6"/>
-      <c r="LW6"/>
-      <c r="LX6"/>
-      <c r="LY6"/>
-      <c r="LZ6"/>
-      <c r="MA6"/>
-      <c r="MB6"/>
-      <c r="MC6"/>
-      <c r="MD6"/>
-      <c r="ME6"/>
-      <c r="MF6"/>
-      <c r="MG6"/>
-      <c r="MH6"/>
-      <c r="MI6"/>
-      <c r="MJ6"/>
-      <c r="MK6"/>
-      <c r="ML6"/>
-      <c r="MM6"/>
-      <c r="MN6"/>
-      <c r="MO6"/>
-      <c r="MP6"/>
-      <c r="MQ6"/>
-      <c r="MR6"/>
-      <c r="MS6"/>
-      <c r="MT6"/>
-      <c r="MU6"/>
-      <c r="MV6"/>
-      <c r="MW6"/>
-      <c r="MX6"/>
-      <c r="MY6"/>
-      <c r="MZ6"/>
-      <c r="NA6"/>
-      <c r="NB6"/>
-      <c r="NC6"/>
-      <c r="ND6"/>
-      <c r="NE6"/>
-      <c r="NF6"/>
-      <c r="NG6"/>
-      <c r="NH6"/>
-      <c r="NI6"/>
-      <c r="NJ6"/>
-      <c r="NK6"/>
-      <c r="NL6"/>
-      <c r="NM6"/>
-      <c r="NN6"/>
-      <c r="NO6"/>
-      <c r="NP6"/>
-      <c r="NQ6"/>
-      <c r="NR6"/>
-      <c r="NS6"/>
-      <c r="NT6"/>
-      <c r="NU6"/>
-      <c r="NV6"/>
-      <c r="NW6"/>
-      <c r="NX6"/>
-      <c r="NY6"/>
-      <c r="NZ6"/>
-      <c r="OA6"/>
-      <c r="OB6"/>
-      <c r="OC6"/>
-      <c r="OD6"/>
-      <c r="OE6"/>
-      <c r="OF6"/>
-      <c r="OG6"/>
-      <c r="OH6"/>
-      <c r="OI6"/>
-      <c r="OJ6"/>
-      <c r="OK6"/>
-      <c r="OL6"/>
-      <c r="OM6"/>
-      <c r="ON6"/>
-      <c r="OO6"/>
-      <c r="OP6"/>
-      <c r="OQ6"/>
-      <c r="OR6"/>
-      <c r="OS6"/>
-      <c r="OT6"/>
-      <c r="OU6"/>
-      <c r="OV6"/>
-      <c r="OW6"/>
-      <c r="OX6"/>
-      <c r="OY6"/>
-      <c r="OZ6"/>
-      <c r="PA6"/>
-      <c r="PB6"/>
-      <c r="PC6"/>
-      <c r="PD6"/>
-      <c r="PE6"/>
-      <c r="PF6"/>
-      <c r="PG6"/>
-      <c r="PH6"/>
-      <c r="PI6"/>
-      <c r="PJ6"/>
-      <c r="PK6"/>
-      <c r="PL6"/>
-      <c r="PM6"/>
-      <c r="PN6"/>
-      <c r="PO6"/>
-      <c r="PP6"/>
-      <c r="PQ6"/>
-      <c r="PR6"/>
-      <c r="PS6"/>
-      <c r="PT6"/>
-      <c r="PU6"/>
-      <c r="PV6"/>
-      <c r="PW6"/>
-      <c r="PX6"/>
-      <c r="PY6"/>
-      <c r="PZ6"/>
-      <c r="QA6"/>
-      <c r="QB6"/>
-      <c r="QC6"/>
-      <c r="QD6"/>
-      <c r="QE6"/>
-      <c r="QF6"/>
-      <c r="QG6"/>
-      <c r="QH6"/>
-      <c r="QI6"/>
-      <c r="QJ6"/>
-      <c r="QK6"/>
-      <c r="QL6"/>
-      <c r="QM6"/>
-      <c r="QN6"/>
-      <c r="QO6"/>
-      <c r="QP6"/>
-      <c r="QQ6"/>
-      <c r="QR6"/>
-      <c r="QS6"/>
-      <c r="QT6"/>
-      <c r="QU6"/>
-      <c r="QV6"/>
-      <c r="QW6"/>
-      <c r="QX6"/>
-      <c r="QY6"/>
-      <c r="QZ6"/>
-      <c r="RA6"/>
-      <c r="RB6"/>
-      <c r="RC6"/>
-      <c r="RD6"/>
-      <c r="RE6"/>
-      <c r="RF6"/>
-      <c r="RG6"/>
-      <c r="RH6"/>
-      <c r="RI6"/>
-      <c r="RJ6"/>
-      <c r="RK6"/>
-      <c r="RL6"/>
-      <c r="RM6"/>
-      <c r="RN6"/>
-      <c r="RO6"/>
-      <c r="RP6"/>
-      <c r="RQ6"/>
-      <c r="RR6"/>
-      <c r="RS6"/>
-      <c r="RT6"/>
-      <c r="RU6"/>
-      <c r="RV6"/>
-      <c r="RW6"/>
-      <c r="RX6"/>
-      <c r="RY6"/>
-      <c r="RZ6"/>
-      <c r="SA6"/>
-      <c r="SB6"/>
-      <c r="SC6"/>
-      <c r="SD6"/>
-      <c r="SE6"/>
-      <c r="SF6"/>
-      <c r="SG6"/>
-      <c r="SH6"/>
-      <c r="SI6"/>
-      <c r="SJ6"/>
-      <c r="SK6"/>
-      <c r="SL6"/>
-      <c r="SM6"/>
-      <c r="SN6"/>
-      <c r="SO6"/>
-      <c r="SP6"/>
-      <c r="SQ6"/>
-      <c r="SR6"/>
-      <c r="SS6"/>
-      <c r="ST6"/>
-      <c r="SU6"/>
-      <c r="SV6"/>
-      <c r="SW6"/>
-      <c r="SX6"/>
-      <c r="SY6"/>
-      <c r="SZ6"/>
-      <c r="TA6"/>
-      <c r="TB6"/>
-      <c r="TC6"/>
-      <c r="TD6"/>
-      <c r="TE6"/>
-      <c r="TF6"/>
-      <c r="TG6"/>
-      <c r="TH6"/>
-      <c r="TI6"/>
-      <c r="TJ6"/>
-      <c r="TK6"/>
-      <c r="TL6"/>
-      <c r="TM6"/>
-      <c r="TN6"/>
-      <c r="TO6"/>
-      <c r="TP6"/>
-      <c r="TQ6"/>
-      <c r="TR6"/>
-      <c r="TS6"/>
-      <c r="TT6"/>
-      <c r="TU6"/>
-      <c r="TV6"/>
-      <c r="TW6"/>
-      <c r="TX6"/>
-      <c r="TY6"/>
-      <c r="TZ6"/>
-      <c r="UA6"/>
-      <c r="UB6"/>
-      <c r="UC6"/>
-      <c r="UD6"/>
-      <c r="UE6"/>
-      <c r="UF6"/>
-      <c r="UG6"/>
-      <c r="UH6"/>
-      <c r="UI6"/>
-      <c r="UJ6"/>
-      <c r="UK6"/>
-      <c r="UL6"/>
-      <c r="UM6"/>
-      <c r="UN6"/>
-      <c r="UO6"/>
-      <c r="UP6"/>
-      <c r="UQ6"/>
-      <c r="UR6"/>
-      <c r="US6"/>
-      <c r="UT6"/>
-      <c r="UU6"/>
-      <c r="UV6"/>
-      <c r="UW6"/>
-      <c r="UX6"/>
-      <c r="UY6"/>
-      <c r="UZ6"/>
-      <c r="VA6"/>
-      <c r="VB6"/>
-      <c r="VC6"/>
-      <c r="VD6"/>
-      <c r="VE6"/>
-      <c r="VF6"/>
-      <c r="VG6"/>
-      <c r="VH6"/>
-      <c r="VI6"/>
-      <c r="VJ6"/>
-      <c r="VK6"/>
-      <c r="VL6"/>
-      <c r="VM6"/>
-      <c r="VN6"/>
-      <c r="VO6"/>
-      <c r="VP6"/>
-      <c r="VQ6"/>
-      <c r="VR6"/>
-      <c r="VS6"/>
-      <c r="VT6"/>
-      <c r="VU6"/>
-      <c r="VV6"/>
-      <c r="VW6"/>
-      <c r="VX6"/>
-      <c r="VY6"/>
-      <c r="VZ6"/>
-      <c r="WA6"/>
-      <c r="WB6"/>
-      <c r="WC6"/>
-      <c r="WD6"/>
-      <c r="WE6"/>
-      <c r="WF6"/>
-      <c r="WG6"/>
-      <c r="WH6"/>
-      <c r="WI6"/>
-      <c r="WJ6"/>
-      <c r="WK6"/>
-      <c r="WL6"/>
-      <c r="WM6"/>
-      <c r="WN6"/>
-      <c r="WO6"/>
-      <c r="WP6"/>
-      <c r="WQ6"/>
-      <c r="WR6"/>
-      <c r="WS6"/>
-      <c r="WT6"/>
-      <c r="WU6"/>
-      <c r="WV6"/>
-      <c r="WW6"/>
-      <c r="WX6"/>
-      <c r="WY6"/>
-      <c r="WZ6"/>
-      <c r="XA6"/>
-      <c r="XB6"/>
-      <c r="XC6"/>
-      <c r="XD6"/>
-      <c r="XE6"/>
-      <c r="XF6"/>
-      <c r="XG6"/>
-      <c r="XH6"/>
-      <c r="XI6"/>
-      <c r="XJ6"/>
-      <c r="XK6"/>
-      <c r="XL6"/>
-      <c r="XM6"/>
-      <c r="XN6"/>
-      <c r="XO6"/>
-      <c r="XP6"/>
-      <c r="XQ6"/>
-      <c r="XR6"/>
-      <c r="XS6"/>
-      <c r="XT6"/>
-      <c r="XU6"/>
-      <c r="XV6"/>
-      <c r="XW6"/>
-      <c r="XX6"/>
-      <c r="XY6"/>
-      <c r="XZ6"/>
-      <c r="YA6"/>
-      <c r="YB6"/>
-      <c r="YC6"/>
-      <c r="YD6"/>
-      <c r="YE6"/>
-      <c r="YF6"/>
-      <c r="YG6"/>
-      <c r="YH6"/>
-      <c r="YI6"/>
-      <c r="YJ6"/>
-      <c r="YK6"/>
-      <c r="YL6"/>
-      <c r="YM6"/>
-      <c r="YN6"/>
-      <c r="YO6"/>
-      <c r="YP6"/>
-      <c r="YQ6"/>
-      <c r="YR6"/>
-      <c r="YS6"/>
-      <c r="YT6"/>
-      <c r="YU6"/>
-      <c r="YV6"/>
-      <c r="YW6"/>
-      <c r="YX6"/>
-      <c r="YY6"/>
-      <c r="YZ6"/>
-      <c r="ZA6"/>
-      <c r="ZB6"/>
-      <c r="ZC6"/>
-      <c r="ZD6"/>
-      <c r="ZE6"/>
-      <c r="ZF6"/>
-      <c r="ZG6"/>
-      <c r="ZH6"/>
-      <c r="ZI6"/>
-      <c r="ZJ6"/>
-      <c r="ZK6"/>
-      <c r="ZL6"/>
-      <c r="ZM6"/>
-      <c r="ZN6"/>
-      <c r="ZO6"/>
-      <c r="ZP6"/>
-      <c r="ZQ6"/>
-      <c r="ZR6"/>
-      <c r="ZS6"/>
-      <c r="ZT6"/>
-      <c r="ZU6"/>
-      <c r="ZV6"/>
-      <c r="ZW6"/>
-      <c r="ZX6"/>
-      <c r="ZY6"/>
-      <c r="ZZ6"/>
-      <c r="AAA6"/>
-      <c r="AAB6"/>
-      <c r="AAC6"/>
-      <c r="AAD6"/>
-      <c r="AAE6"/>
-      <c r="AAF6"/>
-      <c r="AAG6"/>
-      <c r="AAH6"/>
-      <c r="AAI6"/>
-      <c r="AAJ6"/>
-      <c r="AAK6"/>
-      <c r="AAL6"/>
-      <c r="AAM6"/>
-      <c r="AAN6"/>
-      <c r="AAO6"/>
-      <c r="AAP6"/>
-      <c r="AAQ6"/>
-      <c r="AAR6"/>
-      <c r="AAS6"/>
-      <c r="AAT6"/>
-      <c r="AAU6"/>
-      <c r="AAV6"/>
-      <c r="AAW6"/>
-      <c r="AAX6"/>
-      <c r="AAY6"/>
-      <c r="AAZ6"/>
-      <c r="ABA6"/>
-      <c r="ABB6"/>
-      <c r="ABC6"/>
-      <c r="ABD6"/>
-      <c r="ABE6"/>
-      <c r="ABF6"/>
-      <c r="ABG6"/>
-      <c r="ABH6"/>
-      <c r="ABI6"/>
-      <c r="ABJ6"/>
-      <c r="ABK6"/>
-      <c r="ABL6"/>
-      <c r="ABM6"/>
-      <c r="ABN6"/>
-      <c r="ABO6"/>
-      <c r="ABP6"/>
-      <c r="ABQ6"/>
-      <c r="ABR6"/>
-      <c r="ABS6"/>
-      <c r="ABT6"/>
-      <c r="ABU6"/>
-      <c r="ABV6"/>
-      <c r="ABW6"/>
-      <c r="ABX6"/>
-      <c r="ABY6"/>
-      <c r="ABZ6"/>
-      <c r="ACA6"/>
-      <c r="ACB6"/>
-      <c r="ACC6"/>
-      <c r="ACD6"/>
-      <c r="ACE6"/>
-      <c r="ACF6"/>
-      <c r="ACG6"/>
-      <c r="ACH6"/>
-      <c r="ACI6"/>
-      <c r="ACJ6"/>
-      <c r="ACK6"/>
-      <c r="ACL6"/>
-      <c r="ACM6"/>
-      <c r="ACN6"/>
-      <c r="ACO6"/>
-      <c r="ACP6"/>
-      <c r="ACQ6"/>
-      <c r="ACR6"/>
-      <c r="ACS6"/>
-      <c r="ACT6"/>
-      <c r="ACU6"/>
-      <c r="ACV6"/>
-      <c r="ACW6"/>
-      <c r="ACX6"/>
-      <c r="ACY6"/>
-      <c r="ACZ6"/>
-      <c r="ADA6"/>
-      <c r="ADB6"/>
-      <c r="ADC6"/>
-      <c r="ADD6"/>
-      <c r="ADE6"/>
-      <c r="ADF6"/>
-      <c r="ADG6"/>
-      <c r="ADH6"/>
-      <c r="ADI6"/>
-      <c r="ADJ6"/>
-      <c r="ADK6"/>
-      <c r="ADL6"/>
-      <c r="ADM6"/>
-      <c r="ADN6"/>
-      <c r="ADO6"/>
-      <c r="ADP6"/>
-      <c r="ADQ6"/>
-      <c r="ADR6"/>
-      <c r="ADS6"/>
-      <c r="ADT6"/>
-      <c r="ADU6"/>
-      <c r="ADV6"/>
-      <c r="ADW6"/>
-      <c r="ADX6"/>
-      <c r="ADY6"/>
-      <c r="ADZ6"/>
-      <c r="AEA6"/>
-      <c r="AEB6"/>
-      <c r="AEC6"/>
-      <c r="AED6"/>
-      <c r="AEE6"/>
-      <c r="AEF6"/>
-      <c r="AEG6"/>
-      <c r="AEH6"/>
-      <c r="AEI6"/>
-      <c r="AEJ6"/>
-      <c r="AEK6"/>
-      <c r="AEL6"/>
-      <c r="AEM6"/>
-      <c r="AEN6"/>
-      <c r="AEO6"/>
-      <c r="AEP6"/>
-      <c r="AEQ6"/>
-      <c r="AER6"/>
-      <c r="AES6"/>
-      <c r="AET6"/>
-      <c r="AEU6"/>
-      <c r="AEV6"/>
-      <c r="AEW6"/>
-      <c r="AEX6"/>
-      <c r="AEY6"/>
-      <c r="AEZ6"/>
-      <c r="AFA6"/>
-      <c r="AFB6"/>
-      <c r="AFC6"/>
-      <c r="AFD6"/>
-      <c r="AFE6"/>
-      <c r="AFF6"/>
-      <c r="AFG6"/>
-      <c r="AFH6"/>
-      <c r="AFI6"/>
-      <c r="AFJ6"/>
-      <c r="AFK6"/>
-      <c r="AFL6"/>
-      <c r="AFM6"/>
-      <c r="AFN6"/>
-      <c r="AFO6"/>
-      <c r="AFP6"/>
-      <c r="AFQ6"/>
-      <c r="AFR6"/>
-      <c r="AFS6"/>
-      <c r="AFT6"/>
-      <c r="AFU6"/>
-      <c r="AFV6"/>
-      <c r="AFW6"/>
-      <c r="AFX6"/>
-      <c r="AFY6"/>
-      <c r="AFZ6"/>
-      <c r="AGA6"/>
-      <c r="AGB6"/>
-      <c r="AGC6"/>
-      <c r="AGD6"/>
-      <c r="AGE6"/>
-      <c r="AGF6"/>
-      <c r="AGG6"/>
-      <c r="AGH6"/>
-      <c r="AGI6"/>
-      <c r="AGJ6"/>
-      <c r="AGK6"/>
-      <c r="AGL6"/>
-      <c r="AGM6"/>
-      <c r="AGN6"/>
-      <c r="AGO6"/>
-      <c r="AGP6"/>
-      <c r="AGQ6"/>
-      <c r="AGR6"/>
-      <c r="AGS6"/>
-      <c r="AGT6"/>
-      <c r="AGU6"/>
-      <c r="AGV6"/>
-      <c r="AGW6"/>
-      <c r="AGX6"/>
-      <c r="AGY6"/>
-      <c r="AGZ6"/>
-      <c r="AHA6"/>
-      <c r="AHB6"/>
-      <c r="AHC6"/>
-      <c r="AHD6"/>
-      <c r="AHE6"/>
-      <c r="AHF6"/>
-      <c r="AHG6"/>
-      <c r="AHH6"/>
-      <c r="AHI6"/>
-      <c r="AHJ6"/>
-      <c r="AHK6"/>
-      <c r="AHL6"/>
-      <c r="AHM6"/>
-      <c r="AHN6"/>
-      <c r="AHO6"/>
-      <c r="AHP6"/>
-      <c r="AHQ6"/>
-      <c r="AHR6"/>
-      <c r="AHS6"/>
-      <c r="AHT6"/>
-      <c r="AHU6"/>
-      <c r="AHV6"/>
-      <c r="AHW6"/>
-      <c r="AHX6"/>
-      <c r="AHY6"/>
-      <c r="AHZ6"/>
-      <c r="AIA6"/>
-      <c r="AIB6"/>
-      <c r="AIC6"/>
-      <c r="AID6"/>
-      <c r="AIE6"/>
-      <c r="AIF6"/>
-      <c r="AIG6"/>
-      <c r="AIH6"/>
-      <c r="AII6"/>
-      <c r="AIJ6"/>
-      <c r="AIK6"/>
-      <c r="AIL6"/>
-      <c r="AIM6"/>
-      <c r="AIN6"/>
-      <c r="AIO6"/>
-      <c r="AIP6"/>
-      <c r="AIQ6"/>
-      <c r="AIR6"/>
-      <c r="AIS6"/>
-      <c r="AIT6"/>
-      <c r="AIU6"/>
-      <c r="AIV6"/>
-      <c r="AIW6"/>
-      <c r="AIX6"/>
-      <c r="AIY6"/>
-      <c r="AIZ6"/>
-      <c r="AJA6"/>
-      <c r="AJB6"/>
-      <c r="AJC6"/>
-      <c r="AJD6"/>
-      <c r="AJE6"/>
-      <c r="AJF6"/>
-      <c r="AJG6"/>
-      <c r="AJH6"/>
-      <c r="AJI6"/>
-      <c r="AJJ6"/>
-      <c r="AJK6"/>
-      <c r="AJL6"/>
-      <c r="AJM6"/>
-      <c r="AJN6"/>
-      <c r="AJO6"/>
-      <c r="AJP6"/>
-      <c r="AJQ6"/>
-      <c r="AJR6"/>
-      <c r="AJS6"/>
-      <c r="AJT6"/>
-      <c r="AJU6"/>
-      <c r="AJV6"/>
-      <c r="AJW6"/>
-      <c r="AJX6"/>
-      <c r="AJY6"/>
-      <c r="AJZ6"/>
-      <c r="AKA6"/>
-      <c r="AKB6"/>
-      <c r="AKC6"/>
-      <c r="AKD6"/>
-      <c r="AKE6"/>
-      <c r="AKF6"/>
-      <c r="AKG6"/>
-      <c r="AKH6"/>
-      <c r="AKI6"/>
-      <c r="AKJ6"/>
-      <c r="AKK6"/>
-      <c r="AKL6"/>
-      <c r="AKM6"/>
-      <c r="AKN6"/>
-      <c r="AKO6"/>
-      <c r="AKP6"/>
-      <c r="AKQ6"/>
-      <c r="AKR6"/>
-      <c r="AKS6"/>
-      <c r="AKT6"/>
-      <c r="AKU6"/>
-      <c r="AKV6"/>
-      <c r="AKW6"/>
-      <c r="AKX6"/>
-      <c r="AKY6"/>
-      <c r="AKZ6"/>
-      <c r="ALA6"/>
-      <c r="ALB6"/>
-      <c r="ALC6"/>
-      <c r="ALD6"/>
-      <c r="ALE6"/>
-      <c r="ALF6"/>
-      <c r="ALG6"/>
-      <c r="ALH6"/>
-      <c r="ALI6"/>
-      <c r="ALJ6"/>
-      <c r="ALK6"/>
-      <c r="ALL6"/>
-      <c r="ALM6"/>
-      <c r="ALN6"/>
-      <c r="ALO6"/>
-      <c r="ALP6"/>
-      <c r="ALQ6"/>
-      <c r="ALR6"/>
-      <c r="ALS6"/>
-      <c r="ALT6"/>
-      <c r="ALU6"/>
-      <c r="ALV6"/>
-      <c r="ALW6"/>
-      <c r="ALX6"/>
-      <c r="ALY6"/>
-      <c r="ALZ6"/>
-      <c r="AMA6"/>
-      <c r="AMB6"/>
-      <c r="AMC6"/>
-      <c r="AMD6"/>
-      <c r="AME6"/>
-      <c r="AMF6"/>
-      <c r="AMG6"/>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-    </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="9" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="D7" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="9" t="n">
         <v>385900</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AD7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7"/>
-      <c r="BD7"/>
-      <c r="BE7"/>
-      <c r="BF7"/>
-      <c r="BG7"/>
-      <c r="BH7"/>
-      <c r="BI7"/>
-      <c r="BJ7"/>
-      <c r="BK7"/>
-      <c r="BL7"/>
-      <c r="BM7"/>
-      <c r="BN7"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
-      <c r="BQ7"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
-      <c r="BT7"/>
-      <c r="BU7"/>
-      <c r="BV7"/>
-      <c r="BW7"/>
-      <c r="BX7"/>
-      <c r="BY7"/>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
-      <c r="CG7"/>
-      <c r="CH7"/>
-      <c r="CI7"/>
-      <c r="CJ7"/>
-      <c r="CK7"/>
-      <c r="CL7"/>
-      <c r="CM7"/>
-      <c r="CN7"/>
-      <c r="CO7"/>
-      <c r="CP7"/>
-      <c r="CQ7"/>
-      <c r="CR7"/>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
-      <c r="CV7"/>
-      <c r="CW7"/>
-      <c r="CX7"/>
-      <c r="CY7"/>
-      <c r="CZ7"/>
-      <c r="DA7"/>
-      <c r="DB7"/>
-      <c r="DC7"/>
-      <c r="DD7"/>
-      <c r="DE7"/>
-      <c r="DF7"/>
-      <c r="DG7"/>
-      <c r="DH7"/>
-      <c r="DI7"/>
-      <c r="DJ7"/>
-      <c r="DK7"/>
-      <c r="DL7"/>
-      <c r="DM7"/>
-      <c r="DN7"/>
-      <c r="DO7"/>
-      <c r="DP7"/>
-      <c r="DQ7"/>
-      <c r="DR7"/>
-      <c r="DS7"/>
-      <c r="DT7"/>
-      <c r="DU7"/>
-      <c r="DV7"/>
-      <c r="DW7"/>
-      <c r="DX7"/>
-      <c r="DY7"/>
-      <c r="DZ7"/>
-      <c r="EA7"/>
-      <c r="EB7"/>
-      <c r="EC7"/>
-      <c r="ED7"/>
-      <c r="EE7"/>
-      <c r="EF7"/>
-      <c r="EG7"/>
-      <c r="EH7"/>
-      <c r="EI7"/>
-      <c r="EJ7"/>
-      <c r="EK7"/>
-      <c r="EL7"/>
-      <c r="EM7"/>
-      <c r="EN7"/>
-      <c r="EO7"/>
-      <c r="EP7"/>
-      <c r="EQ7"/>
-      <c r="ER7"/>
-      <c r="ES7"/>
-      <c r="ET7"/>
-      <c r="EU7"/>
-      <c r="EV7"/>
-      <c r="EW7"/>
-      <c r="EX7"/>
-      <c r="EY7"/>
-      <c r="EZ7"/>
-      <c r="FA7"/>
-      <c r="FB7"/>
-      <c r="FC7"/>
-      <c r="FD7"/>
-      <c r="FE7"/>
-      <c r="FF7"/>
-      <c r="FG7"/>
-      <c r="FH7"/>
-      <c r="FI7"/>
-      <c r="FJ7"/>
-      <c r="FK7"/>
-      <c r="FL7"/>
-      <c r="FM7"/>
-      <c r="FN7"/>
-      <c r="FO7"/>
-      <c r="FP7"/>
-      <c r="FQ7"/>
-      <c r="FR7"/>
-      <c r="FS7"/>
-      <c r="FT7"/>
-      <c r="FU7"/>
-      <c r="FV7"/>
-      <c r="FW7"/>
-      <c r="FX7"/>
-      <c r="FY7"/>
-      <c r="FZ7"/>
-      <c r="GA7"/>
-      <c r="GB7"/>
-      <c r="GC7"/>
-      <c r="GD7"/>
-      <c r="GE7"/>
-      <c r="GF7"/>
-      <c r="GG7"/>
-      <c r="GH7"/>
-      <c r="GI7"/>
-      <c r="GJ7"/>
-      <c r="GK7"/>
-      <c r="GL7"/>
-      <c r="GM7"/>
-      <c r="GN7"/>
-      <c r="GO7"/>
-      <c r="GP7"/>
-      <c r="GQ7"/>
-      <c r="GR7"/>
-      <c r="GS7"/>
-      <c r="GT7"/>
-      <c r="GU7"/>
-      <c r="GV7"/>
-      <c r="GW7"/>
-      <c r="GX7"/>
-      <c r="GY7"/>
-      <c r="GZ7"/>
-      <c r="HA7"/>
-      <c r="HB7"/>
-      <c r="HC7"/>
-      <c r="HD7"/>
-      <c r="HE7"/>
-      <c r="HF7"/>
-      <c r="HG7"/>
-      <c r="HH7"/>
-      <c r="HI7"/>
-      <c r="HJ7"/>
-      <c r="HK7"/>
-      <c r="HL7"/>
-      <c r="HM7"/>
-      <c r="HN7"/>
-      <c r="HO7"/>
-      <c r="HP7"/>
-      <c r="HQ7"/>
-      <c r="HR7"/>
-      <c r="HS7"/>
-      <c r="HT7"/>
-      <c r="HU7"/>
-      <c r="HV7"/>
-      <c r="HW7"/>
-      <c r="HX7"/>
-      <c r="HY7"/>
-      <c r="HZ7"/>
-      <c r="IA7"/>
-      <c r="IB7"/>
-      <c r="IC7"/>
-      <c r="ID7"/>
-      <c r="IE7"/>
-      <c r="IF7"/>
-      <c r="IG7"/>
-      <c r="IH7"/>
-      <c r="II7"/>
-      <c r="IJ7"/>
-      <c r="IK7"/>
-      <c r="IL7"/>
-      <c r="IM7"/>
-      <c r="IN7"/>
-      <c r="IO7"/>
-      <c r="IP7"/>
-      <c r="IQ7"/>
-      <c r="IR7"/>
-      <c r="IS7"/>
-      <c r="IT7"/>
-      <c r="IU7"/>
-      <c r="IV7"/>
-      <c r="IW7"/>
-      <c r="IX7"/>
-      <c r="IY7"/>
-      <c r="IZ7"/>
-      <c r="JA7"/>
-      <c r="JB7"/>
-      <c r="JC7"/>
-      <c r="JD7"/>
-      <c r="JE7"/>
-      <c r="JF7"/>
-      <c r="JG7"/>
-      <c r="JH7"/>
-      <c r="JI7"/>
-      <c r="JJ7"/>
-      <c r="JK7"/>
-      <c r="JL7"/>
-      <c r="JM7"/>
-      <c r="JN7"/>
-      <c r="JO7"/>
-      <c r="JP7"/>
-      <c r="JQ7"/>
-      <c r="JR7"/>
-      <c r="JS7"/>
-      <c r="JT7"/>
-      <c r="JU7"/>
-      <c r="JV7"/>
-      <c r="JW7"/>
-      <c r="JX7"/>
-      <c r="JY7"/>
-      <c r="JZ7"/>
-      <c r="KA7"/>
-      <c r="KB7"/>
-      <c r="KC7"/>
-      <c r="KD7"/>
-      <c r="KE7"/>
-      <c r="KF7"/>
-      <c r="KG7"/>
-      <c r="KH7"/>
-      <c r="KI7"/>
-      <c r="KJ7"/>
-      <c r="KK7"/>
-      <c r="KL7"/>
-      <c r="KM7"/>
-      <c r="KN7"/>
-      <c r="KO7"/>
-      <c r="KP7"/>
-      <c r="KQ7"/>
-      <c r="KR7"/>
-      <c r="KS7"/>
-      <c r="KT7"/>
-      <c r="KU7"/>
-      <c r="KV7"/>
-      <c r="KW7"/>
-      <c r="KX7"/>
-      <c r="KY7"/>
-      <c r="KZ7"/>
-      <c r="LA7"/>
-      <c r="LB7"/>
-      <c r="LC7"/>
-      <c r="LD7"/>
-      <c r="LE7"/>
-      <c r="LF7"/>
-      <c r="LG7"/>
-      <c r="LH7"/>
-      <c r="LI7"/>
-      <c r="LJ7"/>
-      <c r="LK7"/>
-      <c r="LL7"/>
-      <c r="LM7"/>
-      <c r="LN7"/>
-      <c r="LO7"/>
-      <c r="LP7"/>
-      <c r="LQ7"/>
-      <c r="LR7"/>
-      <c r="LS7"/>
-      <c r="LT7"/>
-      <c r="LU7"/>
-      <c r="LV7"/>
-      <c r="LW7"/>
-      <c r="LX7"/>
-      <c r="LY7"/>
-      <c r="LZ7"/>
-      <c r="MA7"/>
-      <c r="MB7"/>
-      <c r="MC7"/>
-      <c r="MD7"/>
-      <c r="ME7"/>
-      <c r="MF7"/>
-      <c r="MG7"/>
-      <c r="MH7"/>
-      <c r="MI7"/>
-      <c r="MJ7"/>
-      <c r="MK7"/>
-      <c r="ML7"/>
-      <c r="MM7"/>
-      <c r="MN7"/>
-      <c r="MO7"/>
-      <c r="MP7"/>
-      <c r="MQ7"/>
-      <c r="MR7"/>
-      <c r="MS7"/>
-      <c r="MT7"/>
-      <c r="MU7"/>
-      <c r="MV7"/>
-      <c r="MW7"/>
-      <c r="MX7"/>
-      <c r="MY7"/>
-      <c r="MZ7"/>
-      <c r="NA7"/>
-      <c r="NB7"/>
-      <c r="NC7"/>
-      <c r="ND7"/>
-      <c r="NE7"/>
-      <c r="NF7"/>
-      <c r="NG7"/>
-      <c r="NH7"/>
-      <c r="NI7"/>
-      <c r="NJ7"/>
-      <c r="NK7"/>
-      <c r="NL7"/>
-      <c r="NM7"/>
-      <c r="NN7"/>
-      <c r="NO7"/>
-      <c r="NP7"/>
-      <c r="NQ7"/>
-      <c r="NR7"/>
-      <c r="NS7"/>
-      <c r="NT7"/>
-      <c r="NU7"/>
-      <c r="NV7"/>
-      <c r="NW7"/>
-      <c r="NX7"/>
-      <c r="NY7"/>
-      <c r="NZ7"/>
-      <c r="OA7"/>
-      <c r="OB7"/>
-      <c r="OC7"/>
-      <c r="OD7"/>
-      <c r="OE7"/>
-      <c r="OF7"/>
-      <c r="OG7"/>
-      <c r="OH7"/>
-      <c r="OI7"/>
-      <c r="OJ7"/>
-      <c r="OK7"/>
-      <c r="OL7"/>
-      <c r="OM7"/>
-      <c r="ON7"/>
-      <c r="OO7"/>
-      <c r="OP7"/>
-      <c r="OQ7"/>
-      <c r="OR7"/>
-      <c r="OS7"/>
-      <c r="OT7"/>
-      <c r="OU7"/>
-      <c r="OV7"/>
-      <c r="OW7"/>
-      <c r="OX7"/>
-      <c r="OY7"/>
-      <c r="OZ7"/>
-      <c r="PA7"/>
-      <c r="PB7"/>
-      <c r="PC7"/>
-      <c r="PD7"/>
-      <c r="PE7"/>
-      <c r="PF7"/>
-      <c r="PG7"/>
-      <c r="PH7"/>
-      <c r="PI7"/>
-      <c r="PJ7"/>
-      <c r="PK7"/>
-      <c r="PL7"/>
-      <c r="PM7"/>
-      <c r="PN7"/>
-      <c r="PO7"/>
-      <c r="PP7"/>
-      <c r="PQ7"/>
-      <c r="PR7"/>
-      <c r="PS7"/>
-      <c r="PT7"/>
-      <c r="PU7"/>
-      <c r="PV7"/>
-      <c r="PW7"/>
-      <c r="PX7"/>
-      <c r="PY7"/>
-      <c r="PZ7"/>
-      <c r="QA7"/>
-      <c r="QB7"/>
-      <c r="QC7"/>
-      <c r="QD7"/>
-      <c r="QE7"/>
-      <c r="QF7"/>
-      <c r="QG7"/>
-      <c r="QH7"/>
-      <c r="QI7"/>
-      <c r="QJ7"/>
-      <c r="QK7"/>
-      <c r="QL7"/>
-      <c r="QM7"/>
-      <c r="QN7"/>
-      <c r="QO7"/>
-      <c r="QP7"/>
-      <c r="QQ7"/>
-      <c r="QR7"/>
-      <c r="QS7"/>
-      <c r="QT7"/>
-      <c r="QU7"/>
-      <c r="QV7"/>
-      <c r="QW7"/>
-      <c r="QX7"/>
-      <c r="QY7"/>
-      <c r="QZ7"/>
-      <c r="RA7"/>
-      <c r="RB7"/>
-      <c r="RC7"/>
-      <c r="RD7"/>
-      <c r="RE7"/>
-      <c r="RF7"/>
-      <c r="RG7"/>
-      <c r="RH7"/>
-      <c r="RI7"/>
-      <c r="RJ7"/>
-      <c r="RK7"/>
-      <c r="RL7"/>
-      <c r="RM7"/>
-      <c r="RN7"/>
-      <c r="RO7"/>
-      <c r="RP7"/>
-      <c r="RQ7"/>
-      <c r="RR7"/>
-      <c r="RS7"/>
-      <c r="RT7"/>
-      <c r="RU7"/>
-      <c r="RV7"/>
-      <c r="RW7"/>
-      <c r="RX7"/>
-      <c r="RY7"/>
-      <c r="RZ7"/>
-      <c r="SA7"/>
-      <c r="SB7"/>
-      <c r="SC7"/>
-      <c r="SD7"/>
-      <c r="SE7"/>
-      <c r="SF7"/>
-      <c r="SG7"/>
-      <c r="SH7"/>
-      <c r="SI7"/>
-      <c r="SJ7"/>
-      <c r="SK7"/>
-      <c r="SL7"/>
-      <c r="SM7"/>
-      <c r="SN7"/>
-      <c r="SO7"/>
-      <c r="SP7"/>
-      <c r="SQ7"/>
-      <c r="SR7"/>
-      <c r="SS7"/>
-      <c r="ST7"/>
-      <c r="SU7"/>
-      <c r="SV7"/>
-      <c r="SW7"/>
-      <c r="SX7"/>
-      <c r="SY7"/>
-      <c r="SZ7"/>
-      <c r="TA7"/>
-      <c r="TB7"/>
-      <c r="TC7"/>
-      <c r="TD7"/>
-      <c r="TE7"/>
-      <c r="TF7"/>
-      <c r="TG7"/>
-      <c r="TH7"/>
-      <c r="TI7"/>
-      <c r="TJ7"/>
-      <c r="TK7"/>
-      <c r="TL7"/>
-      <c r="TM7"/>
-      <c r="TN7"/>
-      <c r="TO7"/>
-      <c r="TP7"/>
-      <c r="TQ7"/>
-      <c r="TR7"/>
-      <c r="TS7"/>
-      <c r="TT7"/>
-      <c r="TU7"/>
-      <c r="TV7"/>
-      <c r="TW7"/>
-      <c r="TX7"/>
-      <c r="TY7"/>
-      <c r="TZ7"/>
-      <c r="UA7"/>
-      <c r="UB7"/>
-      <c r="UC7"/>
-      <c r="UD7"/>
-      <c r="UE7"/>
-      <c r="UF7"/>
-      <c r="UG7"/>
-      <c r="UH7"/>
-      <c r="UI7"/>
-      <c r="UJ7"/>
-      <c r="UK7"/>
-      <c r="UL7"/>
-      <c r="UM7"/>
-      <c r="UN7"/>
-      <c r="UO7"/>
-      <c r="UP7"/>
-      <c r="UQ7"/>
-      <c r="UR7"/>
-      <c r="US7"/>
-      <c r="UT7"/>
-      <c r="UU7"/>
-      <c r="UV7"/>
-      <c r="UW7"/>
-      <c r="UX7"/>
-      <c r="UY7"/>
-      <c r="UZ7"/>
-      <c r="VA7"/>
-      <c r="VB7"/>
-      <c r="VC7"/>
-      <c r="VD7"/>
-      <c r="VE7"/>
-      <c r="VF7"/>
-      <c r="VG7"/>
-      <c r="VH7"/>
-      <c r="VI7"/>
-      <c r="VJ7"/>
-      <c r="VK7"/>
-      <c r="VL7"/>
-      <c r="VM7"/>
-      <c r="VN7"/>
-      <c r="VO7"/>
-      <c r="VP7"/>
-      <c r="VQ7"/>
-      <c r="VR7"/>
-      <c r="VS7"/>
-      <c r="VT7"/>
-      <c r="VU7"/>
-      <c r="VV7"/>
-      <c r="VW7"/>
-      <c r="VX7"/>
-      <c r="VY7"/>
-      <c r="VZ7"/>
-      <c r="WA7"/>
-      <c r="WB7"/>
-      <c r="WC7"/>
-      <c r="WD7"/>
-      <c r="WE7"/>
-      <c r="WF7"/>
-      <c r="WG7"/>
-      <c r="WH7"/>
-      <c r="WI7"/>
-      <c r="WJ7"/>
-      <c r="WK7"/>
-      <c r="WL7"/>
-      <c r="WM7"/>
-      <c r="WN7"/>
-      <c r="WO7"/>
-      <c r="WP7"/>
-      <c r="WQ7"/>
-      <c r="WR7"/>
-      <c r="WS7"/>
-      <c r="WT7"/>
-      <c r="WU7"/>
-      <c r="WV7"/>
-      <c r="WW7"/>
-      <c r="WX7"/>
-      <c r="WY7"/>
-      <c r="WZ7"/>
-      <c r="XA7"/>
-      <c r="XB7"/>
-      <c r="XC7"/>
-      <c r="XD7"/>
-      <c r="XE7"/>
-      <c r="XF7"/>
-      <c r="XG7"/>
-      <c r="XH7"/>
-      <c r="XI7"/>
-      <c r="XJ7"/>
-      <c r="XK7"/>
-      <c r="XL7"/>
-      <c r="XM7"/>
-      <c r="XN7"/>
-      <c r="XO7"/>
-      <c r="XP7"/>
-      <c r="XQ7"/>
-      <c r="XR7"/>
-      <c r="XS7"/>
-      <c r="XT7"/>
-      <c r="XU7"/>
-      <c r="XV7"/>
-      <c r="XW7"/>
-      <c r="XX7"/>
-      <c r="XY7"/>
-      <c r="XZ7"/>
-      <c r="YA7"/>
-      <c r="YB7"/>
-      <c r="YC7"/>
-      <c r="YD7"/>
-      <c r="YE7"/>
-      <c r="YF7"/>
-      <c r="YG7"/>
-      <c r="YH7"/>
-      <c r="YI7"/>
-      <c r="YJ7"/>
-      <c r="YK7"/>
-      <c r="YL7"/>
-      <c r="YM7"/>
-      <c r="YN7"/>
-      <c r="YO7"/>
-      <c r="YP7"/>
-      <c r="YQ7"/>
-      <c r="YR7"/>
-      <c r="YS7"/>
-      <c r="YT7"/>
-      <c r="YU7"/>
-      <c r="YV7"/>
-      <c r="YW7"/>
-      <c r="YX7"/>
-      <c r="YY7"/>
-      <c r="YZ7"/>
-      <c r="ZA7"/>
-      <c r="ZB7"/>
-      <c r="ZC7"/>
-      <c r="ZD7"/>
-      <c r="ZE7"/>
-      <c r="ZF7"/>
-      <c r="ZG7"/>
-      <c r="ZH7"/>
-      <c r="ZI7"/>
-      <c r="ZJ7"/>
-      <c r="ZK7"/>
-      <c r="ZL7"/>
-      <c r="ZM7"/>
-      <c r="ZN7"/>
-      <c r="ZO7"/>
-      <c r="ZP7"/>
-      <c r="ZQ7"/>
-      <c r="ZR7"/>
-      <c r="ZS7"/>
-      <c r="ZT7"/>
-      <c r="ZU7"/>
-      <c r="ZV7"/>
-      <c r="ZW7"/>
-      <c r="ZX7"/>
-      <c r="ZY7"/>
-      <c r="ZZ7"/>
-      <c r="AAA7"/>
-      <c r="AAB7"/>
-      <c r="AAC7"/>
-      <c r="AAD7"/>
-      <c r="AAE7"/>
-      <c r="AAF7"/>
-      <c r="AAG7"/>
-      <c r="AAH7"/>
-      <c r="AAI7"/>
-      <c r="AAJ7"/>
-      <c r="AAK7"/>
-      <c r="AAL7"/>
-      <c r="AAM7"/>
-      <c r="AAN7"/>
-      <c r="AAO7"/>
-      <c r="AAP7"/>
-      <c r="AAQ7"/>
-      <c r="AAR7"/>
-      <c r="AAS7"/>
-      <c r="AAT7"/>
-      <c r="AAU7"/>
-      <c r="AAV7"/>
-      <c r="AAW7"/>
-      <c r="AAX7"/>
-      <c r="AAY7"/>
-      <c r="AAZ7"/>
-      <c r="ABA7"/>
-      <c r="ABB7"/>
-      <c r="ABC7"/>
-      <c r="ABD7"/>
-      <c r="ABE7"/>
-      <c r="ABF7"/>
-      <c r="ABG7"/>
-      <c r="ABH7"/>
-      <c r="ABI7"/>
-      <c r="ABJ7"/>
-      <c r="ABK7"/>
-      <c r="ABL7"/>
-      <c r="ABM7"/>
-      <c r="ABN7"/>
-      <c r="ABO7"/>
-      <c r="ABP7"/>
-      <c r="ABQ7"/>
-      <c r="ABR7"/>
-      <c r="ABS7"/>
-      <c r="ABT7"/>
-      <c r="ABU7"/>
-      <c r="ABV7"/>
-      <c r="ABW7"/>
-      <c r="ABX7"/>
-      <c r="ABY7"/>
-      <c r="ABZ7"/>
-      <c r="ACA7"/>
-      <c r="ACB7"/>
-      <c r="ACC7"/>
-      <c r="ACD7"/>
-      <c r="ACE7"/>
-      <c r="ACF7"/>
-      <c r="ACG7"/>
-      <c r="ACH7"/>
-      <c r="ACI7"/>
-      <c r="ACJ7"/>
-      <c r="ACK7"/>
-      <c r="ACL7"/>
-      <c r="ACM7"/>
-      <c r="ACN7"/>
-      <c r="ACO7"/>
-      <c r="ACP7"/>
-      <c r="ACQ7"/>
-      <c r="ACR7"/>
-      <c r="ACS7"/>
-      <c r="ACT7"/>
-      <c r="ACU7"/>
-      <c r="ACV7"/>
-      <c r="ACW7"/>
-      <c r="ACX7"/>
-      <c r="ACY7"/>
-      <c r="ACZ7"/>
-      <c r="ADA7"/>
-      <c r="ADB7"/>
-      <c r="ADC7"/>
-      <c r="ADD7"/>
-      <c r="ADE7"/>
-      <c r="ADF7"/>
-      <c r="ADG7"/>
-      <c r="ADH7"/>
-      <c r="ADI7"/>
-      <c r="ADJ7"/>
-      <c r="ADK7"/>
-      <c r="ADL7"/>
-      <c r="ADM7"/>
-      <c r="ADN7"/>
-      <c r="ADO7"/>
-      <c r="ADP7"/>
-      <c r="ADQ7"/>
-      <c r="ADR7"/>
-      <c r="ADS7"/>
-      <c r="ADT7"/>
-      <c r="ADU7"/>
-      <c r="ADV7"/>
-      <c r="ADW7"/>
-      <c r="ADX7"/>
-      <c r="ADY7"/>
-      <c r="ADZ7"/>
-      <c r="AEA7"/>
-      <c r="AEB7"/>
-      <c r="AEC7"/>
-      <c r="AED7"/>
-      <c r="AEE7"/>
-      <c r="AEF7"/>
-      <c r="AEG7"/>
-      <c r="AEH7"/>
-      <c r="AEI7"/>
-      <c r="AEJ7"/>
-      <c r="AEK7"/>
-      <c r="AEL7"/>
-      <c r="AEM7"/>
-      <c r="AEN7"/>
-      <c r="AEO7"/>
-      <c r="AEP7"/>
-      <c r="AEQ7"/>
-      <c r="AER7"/>
-      <c r="AES7"/>
-      <c r="AET7"/>
-      <c r="AEU7"/>
-      <c r="AEV7"/>
-      <c r="AEW7"/>
-      <c r="AEX7"/>
-      <c r="AEY7"/>
-      <c r="AEZ7"/>
-      <c r="AFA7"/>
-      <c r="AFB7"/>
-      <c r="AFC7"/>
-      <c r="AFD7"/>
-      <c r="AFE7"/>
-      <c r="AFF7"/>
-      <c r="AFG7"/>
-      <c r="AFH7"/>
-      <c r="AFI7"/>
-      <c r="AFJ7"/>
-      <c r="AFK7"/>
-      <c r="AFL7"/>
-      <c r="AFM7"/>
-      <c r="AFN7"/>
-      <c r="AFO7"/>
-      <c r="AFP7"/>
-      <c r="AFQ7"/>
-      <c r="AFR7"/>
-      <c r="AFS7"/>
-      <c r="AFT7"/>
-      <c r="AFU7"/>
-      <c r="AFV7"/>
-      <c r="AFW7"/>
-      <c r="AFX7"/>
-      <c r="AFY7"/>
-      <c r="AFZ7"/>
-      <c r="AGA7"/>
-      <c r="AGB7"/>
-      <c r="AGC7"/>
-      <c r="AGD7"/>
-      <c r="AGE7"/>
-      <c r="AGF7"/>
-      <c r="AGG7"/>
-      <c r="AGH7"/>
-      <c r="AGI7"/>
-      <c r="AGJ7"/>
-      <c r="AGK7"/>
-      <c r="AGL7"/>
-      <c r="AGM7"/>
-      <c r="AGN7"/>
-      <c r="AGO7"/>
-      <c r="AGP7"/>
-      <c r="AGQ7"/>
-      <c r="AGR7"/>
-      <c r="AGS7"/>
-      <c r="AGT7"/>
-      <c r="AGU7"/>
-      <c r="AGV7"/>
-      <c r="AGW7"/>
-      <c r="AGX7"/>
-      <c r="AGY7"/>
-      <c r="AGZ7"/>
-      <c r="AHA7"/>
-      <c r="AHB7"/>
-      <c r="AHC7"/>
-      <c r="AHD7"/>
-      <c r="AHE7"/>
-      <c r="AHF7"/>
-      <c r="AHG7"/>
-      <c r="AHH7"/>
-      <c r="AHI7"/>
-      <c r="AHJ7"/>
-      <c r="AHK7"/>
-      <c r="AHL7"/>
-      <c r="AHM7"/>
-      <c r="AHN7"/>
-      <c r="AHO7"/>
-      <c r="AHP7"/>
-      <c r="AHQ7"/>
-      <c r="AHR7"/>
-      <c r="AHS7"/>
-      <c r="AHT7"/>
-      <c r="AHU7"/>
-      <c r="AHV7"/>
-      <c r="AHW7"/>
-      <c r="AHX7"/>
-      <c r="AHY7"/>
-      <c r="AHZ7"/>
-      <c r="AIA7"/>
-      <c r="AIB7"/>
-      <c r="AIC7"/>
-      <c r="AID7"/>
-      <c r="AIE7"/>
-      <c r="AIF7"/>
-      <c r="AIG7"/>
-      <c r="AIH7"/>
-      <c r="AII7"/>
-      <c r="AIJ7"/>
-      <c r="AIK7"/>
-      <c r="AIL7"/>
-      <c r="AIM7"/>
-      <c r="AIN7"/>
-      <c r="AIO7"/>
-      <c r="AIP7"/>
-      <c r="AIQ7"/>
-      <c r="AIR7"/>
-      <c r="AIS7"/>
-      <c r="AIT7"/>
-      <c r="AIU7"/>
-      <c r="AIV7"/>
-      <c r="AIW7"/>
-      <c r="AIX7"/>
-      <c r="AIY7"/>
-      <c r="AIZ7"/>
-      <c r="AJA7"/>
-      <c r="AJB7"/>
-      <c r="AJC7"/>
-      <c r="AJD7"/>
-      <c r="AJE7"/>
-      <c r="AJF7"/>
-      <c r="AJG7"/>
-      <c r="AJH7"/>
-      <c r="AJI7"/>
-      <c r="AJJ7"/>
-      <c r="AJK7"/>
-      <c r="AJL7"/>
-      <c r="AJM7"/>
-      <c r="AJN7"/>
-      <c r="AJO7"/>
-      <c r="AJP7"/>
-      <c r="AJQ7"/>
-      <c r="AJR7"/>
-      <c r="AJS7"/>
-      <c r="AJT7"/>
-      <c r="AJU7"/>
-      <c r="AJV7"/>
-      <c r="AJW7"/>
-      <c r="AJX7"/>
-      <c r="AJY7"/>
-      <c r="AJZ7"/>
-      <c r="AKA7"/>
-      <c r="AKB7"/>
-      <c r="AKC7"/>
-      <c r="AKD7"/>
-      <c r="AKE7"/>
-      <c r="AKF7"/>
-      <c r="AKG7"/>
-      <c r="AKH7"/>
-      <c r="AKI7"/>
-      <c r="AKJ7"/>
-      <c r="AKK7"/>
-      <c r="AKL7"/>
-      <c r="AKM7"/>
-      <c r="AKN7"/>
-      <c r="AKO7"/>
-      <c r="AKP7"/>
-      <c r="AKQ7"/>
-      <c r="AKR7"/>
-      <c r="AKS7"/>
-      <c r="AKT7"/>
-      <c r="AKU7"/>
-      <c r="AKV7"/>
-      <c r="AKW7"/>
-      <c r="AKX7"/>
-      <c r="AKY7"/>
-      <c r="AKZ7"/>
-      <c r="ALA7"/>
-      <c r="ALB7"/>
-      <c r="ALC7"/>
-      <c r="ALD7"/>
-      <c r="ALE7"/>
-      <c r="ALF7"/>
-      <c r="ALG7"/>
-      <c r="ALH7"/>
-      <c r="ALI7"/>
-      <c r="ALJ7"/>
-      <c r="ALK7"/>
-      <c r="ALL7"/>
-      <c r="ALM7"/>
-      <c r="ALN7"/>
-      <c r="ALO7"/>
-      <c r="ALP7"/>
-      <c r="ALQ7"/>
-      <c r="ALR7"/>
-      <c r="ALS7"/>
-      <c r="ALT7"/>
-      <c r="ALU7"/>
-      <c r="ALV7"/>
-      <c r="ALW7"/>
-      <c r="ALX7"/>
-      <c r="ALY7"/>
-      <c r="ALZ7"/>
-      <c r="AMA7"/>
-      <c r="AMB7"/>
-      <c r="AMC7"/>
-      <c r="AMD7"/>
-      <c r="AME7"/>
-      <c r="AMF7"/>
-      <c r="AMG7"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-    </row>
-    <row r="8" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>1001</v>
       </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>1001</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="AC8" s="12"/>
       <c r="AE8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+    <row r="9" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>1002</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>1002</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2850,1056 +837,1056 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="12"/>
       <c r="AH9" s="11"/>
-      <c r="AK9" s="13"/>
-    </row>
-    <row r="10" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="AK9" s="11"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>1003</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <v>1003</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="AC10" s="12"/>
       <c r="AE10" s="12"/>
     </row>
-    <row r="11" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+    <row r="11" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>1004</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <v>1004</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="AC11" s="12"/>
       <c r="AE11" s="12"/>
     </row>
-    <row r="12" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+    <row r="12" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
         <v>1005</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>1005</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="R12" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="R12" s="11"/>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="13"/>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="12"/>
       <c r="AH12" s="11"/>
       <c r="AK12" s="11"/>
     </row>
-    <row r="13" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+    <row r="13" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>1006</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <v>1006</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="R13" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="R13" s="11"/>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="13"/>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="12"/>
       <c r="AH13" s="11"/>
       <c r="AK13" s="11"/>
     </row>
-    <row r="14" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+    <row r="14" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>1007</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC14" s="12"/>
       <c r="AE14" s="12"/>
     </row>
-    <row r="15" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+    <row r="15" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>1008</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="n">
         <v>1008</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="R15" s="11"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="12"/>
       <c r="AH15" s="11"/>
-      <c r="AK15" s="13"/>
-    </row>
-    <row r="16" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="AK15" s="11"/>
+    </row>
+    <row r="16" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>1009</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>1009</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC16" s="12"/>
       <c r="AE16" s="12"/>
     </row>
-    <row r="17" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+    <row r="17" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>1010</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13" t="n">
         <v>1010</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14"/>
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13"/>
       <c r="F17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="R17" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="R17" s="11"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="13"/>
+      <c r="AD17" s="11"/>
       <c r="AE17" s="12"/>
       <c r="AH17" s="11"/>
       <c r="AK17" s="11"/>
     </row>
-    <row r="18" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+    <row r="18" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
         <v>2001</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC18" s="12"/>
       <c r="AE18" s="12"/>
     </row>
-    <row r="19" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+    <row r="19" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
         <v>3001</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13" t="n">
         <v>3001</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="D19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="R19" s="11"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="12"/>
       <c r="AH19" s="11"/>
-      <c r="AK19" s="13"/>
-    </row>
-    <row r="20" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="AK19" s="11"/>
+    </row>
+    <row r="20" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>1011</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="13"/>
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="11"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="13"/>
+      <c r="AD20" s="11"/>
       <c r="AE20" s="12"/>
       <c r="AH20" s="11"/>
       <c r="AK20" s="11"/>
     </row>
-    <row r="21" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+    <row r="21" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>1012</v>
       </c>
-      <c r="B21" s="14">
-        <v>2</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="n">
         <v>1012</v>
       </c>
-      <c r="D21" s="14">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="D21" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="R21" s="11"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="12"/>
       <c r="AH21" s="11"/>
-      <c r="AK21" s="13"/>
-    </row>
-    <row r="22" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="AK21" s="11"/>
+    </row>
+    <row r="22" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>1013</v>
       </c>
-      <c r="B22" s="14">
-        <v>2</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13" t="n">
         <v>1013</v>
       </c>
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="13"/>
+      <c r="D22" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="11"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="13"/>
+      <c r="AD22" s="11"/>
       <c r="AE22" s="12"/>
       <c r="AH22" s="11"/>
       <c r="AK22" s="11"/>
     </row>
-    <row r="23" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+    <row r="23" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>1014</v>
       </c>
-      <c r="B23" s="14">
-        <v>2</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="13" t="n">
         <v>1014</v>
       </c>
-      <c r="D23" s="14">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="D23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="AC23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+    <row r="24" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
         <v>1015</v>
       </c>
-      <c r="B24" s="14">
-        <v>2</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13" t="n">
         <v>1015</v>
       </c>
-      <c r="D24" s="14">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16" t="s">
-        <v>28</v>
+      <c r="D24" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="R24" s="11"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="12"/>
       <c r="AH24" s="11"/>
-      <c r="AK24" s="13"/>
-    </row>
-    <row r="25" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="AK24" s="11"/>
+    </row>
+    <row r="25" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
         <v>1016</v>
       </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="n">
         <v>1016</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="16" t="s">
-        <v>28</v>
+      <c r="F25" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AE25" s="8"/>
     </row>
-    <row r="26" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>1017</v>
       </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1017</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="16" t="s">
-        <v>28</v>
+      <c r="F26" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AE26" s="8"/>
     </row>
-    <row r="27" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>1018</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>1018</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="16" t="s">
-        <v>28</v>
+      <c r="F27" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AE27" s="8"/>
     </row>
-    <row r="28" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>1019</v>
       </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>1019</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="16" t="s">
-        <v>28</v>
+      <c r="F28" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AE28" s="8"/>
     </row>
-    <row r="29" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>1020</v>
       </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>1020</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="16" t="s">
-        <v>28</v>
+      <c r="F29" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AE29" s="8"/>
     </row>
-    <row r="30" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>1021</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>1021</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="16" t="s">
-        <v>28</v>
+      <c r="F30" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AE30" s="8"/>
     </row>
-    <row r="31" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>1022</v>
       </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>1022</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="16" t="s">
-        <v>28</v>
+      <c r="F31" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AE31" s="8"/>
     </row>
-    <row r="32" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>1023</v>
       </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>1023</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="16" t="s">
-        <v>28</v>
+      <c r="F32" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AE32" s="8"/>
     </row>
-    <row r="33" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="16" t="s">
-        <v>28</v>
+      <c r="F33" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AE33" s="8"/>
     </row>
-    <row r="34" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>1025</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>1025</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="16" t="s">
-        <v>28</v>
+      <c r="F34" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AE34" s="8"/>
     </row>
-    <row r="35" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>1026</v>
       </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>1026</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="16" t="s">
-        <v>28</v>
+      <c r="F35" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AE35" s="8"/>
     </row>
-    <row r="36" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>1027</v>
       </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>1027</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="16" t="s">
-        <v>28</v>
+      <c r="F36" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AE36" s="8"/>
     </row>
-    <row r="37" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>1028</v>
       </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>1028</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="16" t="s">
-        <v>28</v>
+      <c r="F37" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AE37" s="8"/>
     </row>
-    <row r="38" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>1029</v>
       </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>1029</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="16" t="s">
-        <v>28</v>
+      <c r="F38" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AE38" s="8"/>
     </row>
-    <row r="39" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>1030</v>
       </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>1030</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="16" t="s">
-        <v>28</v>
+      <c r="F39" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AE39" s="8"/>
     </row>
-    <row r="40" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>1031</v>
       </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <v>1031</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="16" t="s">
-        <v>28</v>
+      <c r="F40" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AE40" s="8"/>
     </row>
-    <row r="41" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>1032</v>
       </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>1032</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="16" t="s">
-        <v>28</v>
+      <c r="F41" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AE41" s="8"/>
     </row>
-    <row r="42" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>1033</v>
       </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>1033</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="16" t="s">
-        <v>28</v>
+      <c r="F42" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S42" s="8"/>
       <c r="AC42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>1034</v>
       </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>1034</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="16" t="s">
-        <v>28</v>
+      <c r="F43" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>1035</v>
       </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>1035</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="16" t="s">
-        <v>28</v>
+      <c r="F44" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S44" s="8"/>
       <c r="AC44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>1036</v>
       </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="B45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>1036</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="16" t="s">
-        <v>28</v>
+      <c r="F45" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S45" s="8"/>
       <c r="AC45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>1037</v>
       </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="B46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="n">
         <v>1037</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="16" t="s">
-        <v>28</v>
+      <c r="F46" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S46" s="8"/>
       <c r="AC46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>1038</v>
       </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="B47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="n">
         <v>1038</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="16" t="s">
-        <v>28</v>
+      <c r="F47" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S47" s="8"/>
       <c r="AC47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>1039</v>
       </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="B48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="n">
         <v>1039</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="16" t="s">
-        <v>28</v>
+      <c r="F48" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S48" s="8"/>
       <c r="AC48" s="8"/>
       <c r="AE48" s="8"/>
     </row>
-    <row r="49" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>1040</v>
       </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="B49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="n">
         <v>1040</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="16" t="s">
-        <v>28</v>
+      <c r="F49" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S49" s="8"/>
       <c r="AC49" s="8"/>
       <c r="AE49" s="8"/>
     </row>
-    <row r="50" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>1041</v>
       </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="B50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="n">
         <v>1041</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="16" t="s">
-        <v>28</v>
+      <c r="F50" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AE50" s="8"/>
     </row>
-    <row r="51" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>1042</v>
       </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="B51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>1042</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="16" t="s">
-        <v>28</v>
+      <c r="F51" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S51" s="8"/>
       <c r="AC51" s="8"/>
       <c r="AE51" s="8"/>
     </row>
-    <row r="52" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>1043</v>
       </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="n">
         <v>1043</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="16" t="s">
-        <v>28</v>
+      <c r="F52" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S52" s="8"/>
       <c r="AC52" s="8"/>
       <c r="AE52" s="8"/>
     </row>
-    <row r="53" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>1044</v>
       </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="n">
         <v>1044</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="16" t="s">
-        <v>28</v>
+      <c r="F53" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S53" s="8"/>
       <c r="AC53" s="8"/>
       <c r="AE53" s="8"/>
     </row>
-    <row r="54" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>1045</v>
       </c>
-      <c r="B54" s="1">
-        <v>2</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="B54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="n">
         <v>1045</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="16" t="s">
-        <v>28</v>
+      <c r="F54" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S54" s="8"/>
       <c r="AC54" s="8"/>
       <c r="AE54" s="8"/>
     </row>
-    <row r="55" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>1046</v>
       </c>
-      <c r="B55" s="1">
-        <v>2</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="B55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="n">
         <v>1046</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="16" t="s">
-        <v>28</v>
+      <c r="F55" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S55" s="8"/>
       <c r="AC55" s="8"/>
       <c r="AE55" s="8"/>
     </row>
-    <row r="56" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
         <v>1047</v>
       </c>
-      <c r="B56" s="1">
-        <v>2</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="B56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="n">
         <v>1047</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="16" t="s">
-        <v>28</v>
+      <c r="F56" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S56" s="8"/>
       <c r="AC56" s="8"/>
       <c r="AE56" s="8"/>
     </row>
-    <row r="57" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
         <v>1048</v>
       </c>
-      <c r="B57" s="1">
-        <v>2</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="B57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="n">
         <v>1048</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="16" t="s">
-        <v>28</v>
+      <c r="F57" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="S57" s="8"/>
       <c r="AC57" s="8"/>
       <c r="AE57" s="8"/>
     </row>
-    <row r="58" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3910,7 +1897,7 @@
       <c r="AC58" s="8"/>
       <c r="AE58" s="8"/>
     </row>
-    <row r="59" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3921,7 +1908,7 @@
       <c r="AC59" s="8"/>
       <c r="AE59" s="8"/>
     </row>
-    <row r="60" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3932,7 +1919,7 @@
       <c r="AC60" s="8"/>
       <c r="AE60" s="8"/>
     </row>
-    <row r="61" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3943,7 +1930,7 @@
       <c r="AC61" s="8"/>
       <c r="AE61" s="8"/>
     </row>
-    <row r="62" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3954,7 +1941,7 @@
       <c r="AC62" s="8"/>
       <c r="AE62" s="8"/>
     </row>
-    <row r="63" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3965,7 +1952,7 @@
       <c r="AC63" s="8"/>
       <c r="AE63" s="8"/>
     </row>
-    <row r="64" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3976,7 +1963,7 @@
       <c r="AC64" s="8"/>
       <c r="AE64" s="8"/>
     </row>
-    <row r="65" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3987,7 +1974,7 @@
       <c r="AC65" s="8"/>
       <c r="AE65" s="8"/>
     </row>
-    <row r="66" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3998,7 +1985,7 @@
       <c r="AC66" s="8"/>
       <c r="AE66" s="8"/>
     </row>
-    <row r="67" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4009,7 +1996,7 @@
       <c r="AC67" s="8"/>
       <c r="AE67" s="8"/>
     </row>
-    <row r="68" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4020,7 +2007,7 @@
       <c r="AC68" s="8"/>
       <c r="AE68" s="8"/>
     </row>
-    <row r="69" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4031,7 +2018,7 @@
       <c r="AC69" s="8"/>
       <c r="AE69" s="8"/>
     </row>
-    <row r="70" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4042,7 +2029,7 @@
       <c r="AC70" s="8"/>
       <c r="AE70" s="8"/>
     </row>
-    <row r="71" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4053,7 +2040,7 @@
       <c r="AC71" s="8"/>
       <c r="AE71" s="8"/>
     </row>
-    <row r="72" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4064,7 +2051,7 @@
       <c r="AC72" s="8"/>
       <c r="AE72" s="8"/>
     </row>
-    <row r="73" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4075,7 +2062,7 @@
       <c r="AC73" s="8"/>
       <c r="AE73" s="8"/>
     </row>
-    <row r="74" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4086,7 +2073,7 @@
       <c r="AC74" s="8"/>
       <c r="AE74" s="8"/>
     </row>
-    <row r="75" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4097,7 +2084,7 @@
       <c r="AC75" s="8"/>
       <c r="AE75" s="8"/>
     </row>
-    <row r="76" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4108,7 +2095,7 @@
       <c r="AC76" s="8"/>
       <c r="AE76" s="8"/>
     </row>
-    <row r="77" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4119,7 +2106,7 @@
       <c r="AC77" s="8"/>
       <c r="AE77" s="8"/>
     </row>
-    <row r="78" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4130,7 +2117,7 @@
       <c r="AC78" s="8"/>
       <c r="AE78" s="8"/>
     </row>
-    <row r="79" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4141,7 +2128,7 @@
       <c r="AC79" s="8"/>
       <c r="AE79" s="8"/>
     </row>
-    <row r="80" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4152,7 +2139,7 @@
       <c r="AC80" s="8"/>
       <c r="AE80" s="8"/>
     </row>
-    <row r="81" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4163,7 +2150,7 @@
       <c r="AC81" s="8"/>
       <c r="AE81" s="8"/>
     </row>
-    <row r="82" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4174,7 +2161,7 @@
       <c r="AC82" s="8"/>
       <c r="AE82" s="8"/>
     </row>
-    <row r="83" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4185,7 +2172,7 @@
       <c r="AC83" s="8"/>
       <c r="AE83" s="8"/>
     </row>
-    <row r="84" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4196,7 +2183,7 @@
       <c r="AC84" s="8"/>
       <c r="AE84" s="8"/>
     </row>
-    <row r="85" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4207,7 +2194,7 @@
       <c r="AC85" s="8"/>
       <c r="AE85" s="8"/>
     </row>
-    <row r="86" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4218,7 +2205,7 @@
       <c r="AC86" s="8"/>
       <c r="AE86" s="8"/>
     </row>
-    <row r="87" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4229,7 +2216,7 @@
       <c r="AC87" s="8"/>
       <c r="AE87" s="8"/>
     </row>
-    <row r="88" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4240,7 +2227,7 @@
       <c r="AC88" s="8"/>
       <c r="AE88" s="8"/>
     </row>
-    <row r="89" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4251,7 +2238,7 @@
       <c r="AC89" s="8"/>
       <c r="AE89" s="8"/>
     </row>
-    <row r="90" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4262,7 +2249,7 @@
       <c r="AC90" s="8"/>
       <c r="AE90" s="8"/>
     </row>
-    <row r="91" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4273,7 +2260,7 @@
       <c r="AC91" s="8"/>
       <c r="AE91" s="8"/>
     </row>
-    <row r="92" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4284,7 +2271,7 @@
       <c r="AC92" s="8"/>
       <c r="AE92" s="8"/>
     </row>
-    <row r="93" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4295,7 +2282,7 @@
       <c r="AC93" s="8"/>
       <c r="AE93" s="8"/>
     </row>
-    <row r="94" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4306,7 +2293,7 @@
       <c r="AC94" s="8"/>
       <c r="AE94" s="8"/>
     </row>
-    <row r="95" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4317,7 +2304,7 @@
       <c r="AC95" s="8"/>
       <c r="AE95" s="8"/>
     </row>
-    <row r="96" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4328,7 +2315,7 @@
       <c r="AC96" s="8"/>
       <c r="AE96" s="8"/>
     </row>
-    <row r="97" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4339,7 +2326,7 @@
       <c r="AC97" s="8"/>
       <c r="AE97" s="8"/>
     </row>
-    <row r="98" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4350,7 +2337,7 @@
       <c r="AC98" s="8"/>
       <c r="AE98" s="8"/>
     </row>
-    <row r="99" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4361,7 +2348,7 @@
       <c r="AC99" s="8"/>
       <c r="AE99" s="8"/>
     </row>
-    <row r="100" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4372,7 +2359,7 @@
       <c r="AC100" s="8"/>
       <c r="AE100" s="8"/>
     </row>
-    <row r="101" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4383,7 +2370,7 @@
       <c r="AC101" s="8"/>
       <c r="AE101" s="8"/>
     </row>
-    <row r="102" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4394,7 +2381,7 @@
       <c r="AC102" s="8"/>
       <c r="AE102" s="8"/>
     </row>
-    <row r="103" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4405,7 +2392,7 @@
       <c r="AC103" s="8"/>
       <c r="AE103" s="8"/>
     </row>
-    <row r="104" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4416,7 +2403,7 @@
       <c r="AC104" s="8"/>
       <c r="AE104" s="8"/>
     </row>
-    <row r="105" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4427,7 +2414,7 @@
       <c r="AC105" s="8"/>
       <c r="AE105" s="8"/>
     </row>
-    <row r="106" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4438,7 +2425,7 @@
       <c r="AC106" s="8"/>
       <c r="AE106" s="8"/>
     </row>
-    <row r="107" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4449,7 +2436,7 @@
       <c r="AC107" s="8"/>
       <c r="AE107" s="8"/>
     </row>
-    <row r="108" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4460,7 +2447,7 @@
       <c r="AC108" s="8"/>
       <c r="AE108" s="8"/>
     </row>
-    <row r="109" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4471,7 +2458,7 @@
       <c r="AC109" s="8"/>
       <c r="AE109" s="8"/>
     </row>
-    <row r="110" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4482,7 +2469,7 @@
       <c r="AC110" s="8"/>
       <c r="AE110" s="8"/>
     </row>
-    <row r="111" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4493,7 +2480,7 @@
       <c r="AC111" s="8"/>
       <c r="AE111" s="8"/>
     </row>
-    <row r="112" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4504,7 +2491,7 @@
       <c r="AC112" s="8"/>
       <c r="AE112" s="8"/>
     </row>
-    <row r="113" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4515,7 +2502,7 @@
       <c r="AC113" s="8"/>
       <c r="AE113" s="8"/>
     </row>
-    <row r="114" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4526,7 +2513,7 @@
       <c r="AC114" s="8"/>
       <c r="AE114" s="8"/>
     </row>
-    <row r="115" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4537,7 +2524,7 @@
       <c r="AC115" s="8"/>
       <c r="AE115" s="8"/>
     </row>
-    <row r="116" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4548,7 +2535,7 @@
       <c r="AC116" s="8"/>
       <c r="AE116" s="8"/>
     </row>
-    <row r="117" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4559,7 +2546,7 @@
       <c r="AC117" s="8"/>
       <c r="AE117" s="8"/>
     </row>
-    <row r="118" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4570,7 +2557,7 @@
       <c r="AC118" s="8"/>
       <c r="AE118" s="8"/>
     </row>
-    <row r="119" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4581,7 +2568,7 @@
       <c r="AC119" s="8"/>
       <c r="AE119" s="8"/>
     </row>
-    <row r="120" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4592,7 +2579,7 @@
       <c r="AC120" s="8"/>
       <c r="AE120" s="8"/>
     </row>
-    <row r="121" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4603,7 +2590,7 @@
       <c r="AC121" s="8"/>
       <c r="AE121" s="8"/>
     </row>
-    <row r="122" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4614,7 +2601,7 @@
       <c r="AC122" s="8"/>
       <c r="AE122" s="8"/>
     </row>
-    <row r="123" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4625,7 +2612,7 @@
       <c r="AC123" s="8"/>
       <c r="AE123" s="8"/>
     </row>
-    <row r="124" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4636,7 +2623,7 @@
       <c r="AC124" s="8"/>
       <c r="AE124" s="8"/>
     </row>
-    <row r="125" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4647,7 +2634,7 @@
       <c r="AC125" s="8"/>
       <c r="AE125" s="8"/>
     </row>
-    <row r="126" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4658,7 +2645,7 @@
       <c r="AC126" s="8"/>
       <c r="AE126" s="8"/>
     </row>
-    <row r="127" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4669,7 +2656,7 @@
       <c r="AC127" s="8"/>
       <c r="AE127" s="8"/>
     </row>
-    <row r="128" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4680,7 +2667,7 @@
       <c r="AC128" s="8"/>
       <c r="AE128" s="8"/>
     </row>
-    <row r="129" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4691,7 +2678,7 @@
       <c r="AC129" s="8"/>
       <c r="AE129" s="8"/>
     </row>
-    <row r="130" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4702,7 +2689,7 @@
       <c r="AC130" s="8"/>
       <c r="AE130" s="8"/>
     </row>
-    <row r="131" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4713,7 +2700,7 @@
       <c r="AC131" s="8"/>
       <c r="AE131" s="8"/>
     </row>
-    <row r="132" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4724,7 +2711,7 @@
       <c r="AC132" s="8"/>
       <c r="AE132" s="8"/>
     </row>
-    <row r="133" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4735,7 +2722,7 @@
       <c r="AC133" s="8"/>
       <c r="AE133" s="8"/>
     </row>
-    <row r="134" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4746,7 +2733,7 @@
       <c r="AC134" s="8"/>
       <c r="AE134" s="8"/>
     </row>
-    <row r="135" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4757,7 +2744,7 @@
       <c r="AC135" s="8"/>
       <c r="AE135" s="8"/>
     </row>
-    <row r="136" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4768,7 +2755,7 @@
       <c r="AC136" s="8"/>
       <c r="AE136" s="8"/>
     </row>
-    <row r="137" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4779,7 +2766,7 @@
       <c r="AC137" s="8"/>
       <c r="AE137" s="8"/>
     </row>
-    <row r="138" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4790,7 +2777,7 @@
       <c r="AC138" s="8"/>
       <c r="AE138" s="8"/>
     </row>
-    <row r="139" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4801,7 +2788,7 @@
       <c r="AC139" s="8"/>
       <c r="AE139" s="8"/>
     </row>
-    <row r="140" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4812,7 +2799,7 @@
       <c r="AC140" s="8"/>
       <c r="AE140" s="8"/>
     </row>
-    <row r="141" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4823,7 +2810,7 @@
       <c r="AC141" s="8"/>
       <c r="AE141" s="8"/>
     </row>
-    <row r="142" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4834,7 +2821,7 @@
       <c r="AC142" s="8"/>
       <c r="AE142" s="8"/>
     </row>
-    <row r="143" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4845,7 +2832,7 @@
       <c r="AC143" s="8"/>
       <c r="AE143" s="8"/>
     </row>
-    <row r="144" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4856,7 +2843,7 @@
       <c r="AC144" s="8"/>
       <c r="AE144" s="8"/>
     </row>
-    <row r="145" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4867,7 +2854,7 @@
       <c r="AC145" s="8"/>
       <c r="AE145" s="8"/>
     </row>
-    <row r="146" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4878,7 +2865,7 @@
       <c r="AC146" s="8"/>
       <c r="AE146" s="8"/>
     </row>
-    <row r="147" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4889,7 +2876,7 @@
       <c r="AC147" s="8"/>
       <c r="AE147" s="8"/>
     </row>
-    <row r="148" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4900,7 +2887,7 @@
       <c r="AC148" s="8"/>
       <c r="AE148" s="8"/>
     </row>
-    <row r="149" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4911,7 +2898,7 @@
       <c r="AC149" s="8"/>
       <c r="AE149" s="8"/>
     </row>
-    <row r="150" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4922,7 +2909,7 @@
       <c r="AC150" s="8"/>
       <c r="AE150" s="8"/>
     </row>
-    <row r="151" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4933,7 +2920,7 @@
       <c r="AC151" s="8"/>
       <c r="AE151" s="8"/>
     </row>
-    <row r="152" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4944,7 +2931,7 @@
       <c r="AC152" s="8"/>
       <c r="AE152" s="8"/>
     </row>
-    <row r="153" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4955,7 +2942,7 @@
       <c r="AC153" s="8"/>
       <c r="AE153" s="8"/>
     </row>
-    <row r="154" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4966,7 +2953,7 @@
       <c r="AC154" s="8"/>
       <c r="AE154" s="8"/>
     </row>
-    <row r="155" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4977,7 +2964,7 @@
       <c r="AC155" s="8"/>
       <c r="AE155" s="8"/>
     </row>
-    <row r="156" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4988,7 +2975,7 @@
       <c r="AC156" s="8"/>
       <c r="AE156" s="8"/>
     </row>
-    <row r="157" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4999,7 +2986,7 @@
       <c r="AC157" s="8"/>
       <c r="AE157" s="8"/>
     </row>
-    <row r="158" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5010,7 +2997,7 @@
       <c r="AC158" s="8"/>
       <c r="AE158" s="8"/>
     </row>
-    <row r="159" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5021,7 +3008,7 @@
       <c r="AC159" s="8"/>
       <c r="AE159" s="8"/>
     </row>
-    <row r="160" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5032,7 +3019,7 @@
       <c r="AC160" s="8"/>
       <c r="AE160" s="8"/>
     </row>
-    <row r="161" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5043,7 +3030,7 @@
       <c r="AC161" s="8"/>
       <c r="AE161" s="8"/>
     </row>
-    <row r="162" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5054,7 +3041,7 @@
       <c r="AC162" s="8"/>
       <c r="AE162" s="8"/>
     </row>
-    <row r="163" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5065,7 +3052,7 @@
       <c r="AC163" s="8"/>
       <c r="AE163" s="8"/>
     </row>
-    <row r="164" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5076,7 +3063,7 @@
       <c r="AC164" s="8"/>
       <c r="AE164" s="8"/>
     </row>
-    <row r="165" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5087,7 +3074,7 @@
       <c r="AC165" s="8"/>
       <c r="AE165" s="8"/>
     </row>
-    <row r="166" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5098,7 +3085,7 @@
       <c r="AC166" s="8"/>
       <c r="AE166" s="8"/>
     </row>
-    <row r="167" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5109,7 +3096,7 @@
       <c r="AC167" s="8"/>
       <c r="AE167" s="8"/>
     </row>
-    <row r="168" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5120,7 +3107,7 @@
       <c r="AC168" s="8"/>
       <c r="AE168" s="8"/>
     </row>
-    <row r="169" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5131,7 +3118,7 @@
       <c r="AC169" s="8"/>
       <c r="AE169" s="8"/>
     </row>
-    <row r="170" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5142,7 +3129,7 @@
       <c r="AC170" s="8"/>
       <c r="AE170" s="8"/>
     </row>
-    <row r="171" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5153,7 +3140,7 @@
       <c r="AC171" s="8"/>
       <c r="AE171" s="8"/>
     </row>
-    <row r="172" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5164,7 +3151,7 @@
       <c r="AC172" s="8"/>
       <c r="AE172" s="8"/>
     </row>
-    <row r="173" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5175,7 +3162,7 @@
       <c r="AC173" s="8"/>
       <c r="AE173" s="8"/>
     </row>
-    <row r="174" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5186,7 +3173,7 @@
       <c r="AC174" s="8"/>
       <c r="AE174" s="8"/>
     </row>
-    <row r="175" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5197,7 +3184,7 @@
       <c r="AC175" s="8"/>
       <c r="AE175" s="8"/>
     </row>
-    <row r="176" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5208,7 +3195,7 @@
       <c r="AC176" s="8"/>
       <c r="AE176" s="8"/>
     </row>
-    <row r="177" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5219,7 +3206,7 @@
       <c r="AC177" s="8"/>
       <c r="AE177" s="8"/>
     </row>
-    <row r="178" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5230,7 +3217,7 @@
       <c r="AC178" s="8"/>
       <c r="AE178" s="8"/>
     </row>
-    <row r="179" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5241,7 +3228,7 @@
       <c r="AC179" s="8"/>
       <c r="AE179" s="8"/>
     </row>
-    <row r="180" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5252,7 +3239,7 @@
       <c r="AC180" s="8"/>
       <c r="AE180" s="8"/>
     </row>
-    <row r="181" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5263,7 +3250,7 @@
       <c r="AC181" s="8"/>
       <c r="AE181" s="8"/>
     </row>
-    <row r="182" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5274,7 +3261,7 @@
       <c r="AC182" s="8"/>
       <c r="AE182" s="8"/>
     </row>
-    <row r="183" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5285,7 +3272,7 @@
       <c r="AC183" s="8"/>
       <c r="AE183" s="8"/>
     </row>
-    <row r="184" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5296,7 +3283,7 @@
       <c r="AC184" s="8"/>
       <c r="AE184" s="8"/>
     </row>
-    <row r="185" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5307,7 +3294,7 @@
       <c r="AC185" s="8"/>
       <c r="AE185" s="8"/>
     </row>
-    <row r="186" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5318,7 +3305,7 @@
       <c r="AC186" s="8"/>
       <c r="AE186" s="8"/>
     </row>
-    <row r="187" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5329,7 +3316,7 @@
       <c r="AC187" s="8"/>
       <c r="AE187" s="8"/>
     </row>
-    <row r="188" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5340,7 +3327,7 @@
       <c r="AC188" s="8"/>
       <c r="AE188" s="8"/>
     </row>
-    <row r="189" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5351,7 +3338,7 @@
       <c r="AC189" s="8"/>
       <c r="AE189" s="8"/>
     </row>
-    <row r="190" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5362,7 +3349,7 @@
       <c r="AC190" s="8"/>
       <c r="AE190" s="8"/>
     </row>
-    <row r="191" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5373,7 +3360,7 @@
       <c r="AC191" s="8"/>
       <c r="AE191" s="8"/>
     </row>
-    <row r="192" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5384,7 +3371,7 @@
       <c r="AC192" s="8"/>
       <c r="AE192" s="8"/>
     </row>
-    <row r="193" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5395,7 +3382,7 @@
       <c r="AC193" s="8"/>
       <c r="AE193" s="8"/>
     </row>
-    <row r="194" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5406,7 +3393,7 @@
       <c r="AC194" s="8"/>
       <c r="AE194" s="8"/>
     </row>
-    <row r="195" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5417,7 +3404,7 @@
       <c r="AC195" s="8"/>
       <c r="AE195" s="8"/>
     </row>
-    <row r="196" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5428,7 +3415,7 @@
       <c r="AC196" s="8"/>
       <c r="AE196" s="8"/>
     </row>
-    <row r="197" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5439,7 +3426,7 @@
       <c r="AC197" s="8"/>
       <c r="AE197" s="8"/>
     </row>
-    <row r="198" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5450,7 +3437,7 @@
       <c r="AC198" s="8"/>
       <c r="AE198" s="8"/>
     </row>
-    <row r="199" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5461,7 +3448,7 @@
       <c r="AC199" s="8"/>
       <c r="AE199" s="8"/>
     </row>
-    <row r="200" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5472,7 +3459,7 @@
       <c r="AC200" s="8"/>
       <c r="AE200" s="8"/>
     </row>
-    <row r="201" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5483,7 +3470,7 @@
       <c r="AC201" s="8"/>
       <c r="AE201" s="8"/>
     </row>
-    <row r="202" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5494,7 +3481,7 @@
       <c r="AC202" s="8"/>
       <c r="AE202" s="8"/>
     </row>
-    <row r="203" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5505,7 +3492,7 @@
       <c r="AC203" s="8"/>
       <c r="AE203" s="8"/>
     </row>
-    <row r="204" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5516,7 +3503,7 @@
       <c r="AC204" s="8"/>
       <c r="AE204" s="8"/>
     </row>
-    <row r="205" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5527,7 +3514,7 @@
       <c r="AC205" s="8"/>
       <c r="AE205" s="8"/>
     </row>
-    <row r="206" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5538,7 +3525,7 @@
       <c r="AC206" s="8"/>
       <c r="AE206" s="8"/>
     </row>
-    <row r="207" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5549,7 +3536,7 @@
       <c r="AC207" s="8"/>
       <c r="AE207" s="8"/>
     </row>
-    <row r="208" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5560,7 +3547,7 @@
       <c r="AC208" s="8"/>
       <c r="AE208" s="8"/>
     </row>
-    <row r="209" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5571,7 +3558,7 @@
       <c r="AC209" s="8"/>
       <c r="AE209" s="8"/>
     </row>
-    <row r="210" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5582,7 +3569,7 @@
       <c r="AC210" s="8"/>
       <c r="AE210" s="8"/>
     </row>
-    <row r="211" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5593,7 +3580,7 @@
       <c r="AC211" s="8"/>
       <c r="AE211" s="8"/>
     </row>
-    <row r="212" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5604,7 +3591,7 @@
       <c r="AC212" s="8"/>
       <c r="AE212" s="8"/>
     </row>
-    <row r="213" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5615,7 +3602,7 @@
       <c r="AC213" s="8"/>
       <c r="AE213" s="8"/>
     </row>
-    <row r="214" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5626,7 +3613,7 @@
       <c r="AC214" s="8"/>
       <c r="AE214" s="8"/>
     </row>
-    <row r="215" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5637,7 +3624,7 @@
       <c r="AC215" s="8"/>
       <c r="AE215" s="8"/>
     </row>
-    <row r="216" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5648,7 +3635,7 @@
       <c r="AC216" s="8"/>
       <c r="AE216" s="8"/>
     </row>
-    <row r="217" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5659,7 +3646,7 @@
       <c r="AC217" s="8"/>
       <c r="AE217" s="8"/>
     </row>
-    <row r="218" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5670,7 +3657,7 @@
       <c r="AC218" s="8"/>
       <c r="AE218" s="8"/>
     </row>
-    <row r="219" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5681,7 +3668,7 @@
       <c r="AC219" s="8"/>
       <c r="AE219" s="8"/>
     </row>
-    <row r="220" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5692,7 +3679,7 @@
       <c r="AC220" s="8"/>
       <c r="AE220" s="8"/>
     </row>
-    <row r="221" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5703,7 +3690,7 @@
       <c r="AC221" s="8"/>
       <c r="AE221" s="8"/>
     </row>
-    <row r="222" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5714,7 +3701,7 @@
       <c r="AC222" s="8"/>
       <c r="AE222" s="8"/>
     </row>
-    <row r="223" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5725,7 +3712,7 @@
       <c r="AC223" s="8"/>
       <c r="AE223" s="8"/>
     </row>
-    <row r="224" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5736,7 +3723,7 @@
       <c r="AC224" s="8"/>
       <c r="AE224" s="8"/>
     </row>
-    <row r="225" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5747,7 +3734,7 @@
       <c r="AC225" s="8"/>
       <c r="AE225" s="8"/>
     </row>
-    <row r="226" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5758,7 +3745,7 @@
       <c r="AC226" s="8"/>
       <c r="AE226" s="8"/>
     </row>
-    <row r="227" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5769,7 +3756,7 @@
       <c r="AC227" s="8"/>
       <c r="AE227" s="8"/>
     </row>
-    <row r="228" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5780,7 +3767,7 @@
       <c r="AC228" s="8"/>
       <c r="AE228" s="8"/>
     </row>
-    <row r="229" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5791,7 +3778,7 @@
       <c r="AC229" s="8"/>
       <c r="AE229" s="8"/>
     </row>
-    <row r="230" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5802,7 +3789,7 @@
       <c r="AC230" s="8"/>
       <c r="AE230" s="8"/>
     </row>
-    <row r="231" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5813,7 +3800,7 @@
       <c r="AC231" s="8"/>
       <c r="AE231" s="8"/>
     </row>
-    <row r="232" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5824,7 +3811,7 @@
       <c r="AC232" s="8"/>
       <c r="AE232" s="8"/>
     </row>
-    <row r="233" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5835,7 +3822,7 @@
       <c r="AC233" s="8"/>
       <c r="AE233" s="8"/>
     </row>
-    <row r="234" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5846,7 +3833,7 @@
       <c r="AC234" s="8"/>
       <c r="AE234" s="8"/>
     </row>
-    <row r="235" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5857,7 +3844,7 @@
       <c r="AC235" s="8"/>
       <c r="AE235" s="8"/>
     </row>
-    <row r="236" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5868,7 +3855,7 @@
       <c r="AC236" s="8"/>
       <c r="AE236" s="8"/>
     </row>
-    <row r="237" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5879,7 +3866,7 @@
       <c r="AC237" s="8"/>
       <c r="AE237" s="8"/>
     </row>
-    <row r="238" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5890,7 +3877,7 @@
       <c r="AC238" s="8"/>
       <c r="AE238" s="8"/>
     </row>
-    <row r="239" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5901,7 +3888,7 @@
       <c r="AC239" s="8"/>
       <c r="AE239" s="8"/>
     </row>
-    <row r="240" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5912,7 +3899,7 @@
       <c r="AC240" s="8"/>
       <c r="AE240" s="8"/>
     </row>
-    <row r="241" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5923,7 +3910,7 @@
       <c r="AC241" s="8"/>
       <c r="AE241" s="8"/>
     </row>
-    <row r="242" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5934,7 +3921,7 @@
       <c r="AC242" s="8"/>
       <c r="AE242" s="8"/>
     </row>
-    <row r="243" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5945,7 +3932,7 @@
       <c r="AC243" s="8"/>
       <c r="AE243" s="8"/>
     </row>
-    <row r="244" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -5956,7 +3943,7 @@
       <c r="AC244" s="8"/>
       <c r="AE244" s="8"/>
     </row>
-    <row r="245" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5967,7 +3954,7 @@
       <c r="AC245" s="8"/>
       <c r="AE245" s="8"/>
     </row>
-    <row r="246" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -5978,7 +3965,7 @@
       <c r="AC246" s="8"/>
       <c r="AE246" s="8"/>
     </row>
-    <row r="247" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -5989,7 +3976,7 @@
       <c r="AC247" s="8"/>
       <c r="AE247" s="8"/>
     </row>
-    <row r="248" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6000,7 +3987,7 @@
       <c r="AC248" s="8"/>
       <c r="AE248" s="8"/>
     </row>
-    <row r="249" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6011,7 +3998,7 @@
       <c r="AC249" s="8"/>
       <c r="AE249" s="8"/>
     </row>
-    <row r="250" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6022,7 +4009,7 @@
       <c r="AC250" s="8"/>
       <c r="AE250" s="8"/>
     </row>
-    <row r="251" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6033,7 +4020,7 @@
       <c r="AC251" s="8"/>
       <c r="AE251" s="8"/>
     </row>
-    <row r="252" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6044,7 +4031,7 @@
       <c r="AC252" s="8"/>
       <c r="AE252" s="8"/>
     </row>
-    <row r="253" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6055,7 +4042,7 @@
       <c r="AC253" s="8"/>
       <c r="AE253" s="8"/>
     </row>
-    <row r="254" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6066,7 +4053,7 @@
       <c r="AC254" s="8"/>
       <c r="AE254" s="8"/>
     </row>
-    <row r="255" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6077,7 +4064,7 @@
       <c r="AC255" s="8"/>
       <c r="AE255" s="8"/>
     </row>
-    <row r="256" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6088,7 +4075,7 @@
       <c r="AC256" s="8"/>
       <c r="AE256" s="8"/>
     </row>
-    <row r="257" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6099,7 +4086,7 @@
       <c r="AC257" s="8"/>
       <c r="AE257" s="8"/>
     </row>
-    <row r="258" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6110,7 +4097,7 @@
       <c r="AC258" s="8"/>
       <c r="AE258" s="8"/>
     </row>
-    <row r="259" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -6121,7 +4108,7 @@
       <c r="AC259" s="8"/>
       <c r="AE259" s="8"/>
     </row>
-    <row r="260" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6132,7 +4119,7 @@
       <c r="AC260" s="8"/>
       <c r="AE260" s="8"/>
     </row>
-    <row r="261" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -6143,7 +4130,7 @@
       <c r="AC261" s="8"/>
       <c r="AE261" s="8"/>
     </row>
-    <row r="262" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -6154,7 +4141,7 @@
       <c r="AC262" s="8"/>
       <c r="AE262" s="8"/>
     </row>
-    <row r="263" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6165,7 +4152,7 @@
       <c r="AC263" s="8"/>
       <c r="AE263" s="8"/>
     </row>
-    <row r="264" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -6176,7 +4163,7 @@
       <c r="AC264" s="8"/>
       <c r="AE264" s="8"/>
     </row>
-    <row r="265" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6187,7 +4174,7 @@
       <c r="AC265" s="8"/>
       <c r="AE265" s="8"/>
     </row>
-    <row r="266" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -6198,7 +4185,7 @@
       <c r="AC266" s="8"/>
       <c r="AE266" s="8"/>
     </row>
-    <row r="267" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -6209,7 +4196,7 @@
       <c r="AC267" s="8"/>
       <c r="AE267" s="8"/>
     </row>
-    <row r="268" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -6220,7 +4207,7 @@
       <c r="AC268" s="8"/>
       <c r="AE268" s="8"/>
     </row>
-    <row r="269" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -6231,7 +4218,7 @@
       <c r="AC269" s="8"/>
       <c r="AE269" s="8"/>
     </row>
-    <row r="270" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -6242,7 +4229,7 @@
       <c r="AC270" s="8"/>
       <c r="AE270" s="8"/>
     </row>
-    <row r="271" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -6253,7 +4240,7 @@
       <c r="AC271" s="8"/>
       <c r="AE271" s="8"/>
     </row>
-    <row r="272" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -6264,7 +4251,7 @@
       <c r="AC272" s="8"/>
       <c r="AE272" s="8"/>
     </row>
-    <row r="273" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -6275,7 +4262,7 @@
       <c r="AC273" s="8"/>
       <c r="AE273" s="8"/>
     </row>
-    <row r="274" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -6286,7 +4273,7 @@
       <c r="AC274" s="8"/>
       <c r="AE274" s="8"/>
     </row>
-    <row r="275" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -6297,7 +4284,7 @@
       <c r="AC275" s="8"/>
       <c r="AE275" s="8"/>
     </row>
-    <row r="276" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -6308,7 +4295,7 @@
       <c r="AC276" s="8"/>
       <c r="AE276" s="8"/>
     </row>
-    <row r="277" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -6319,7 +4306,7 @@
       <c r="AC277" s="8"/>
       <c r="AE277" s="8"/>
     </row>
-    <row r="278" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -6330,7 +4317,7 @@
       <c r="AC278" s="8"/>
       <c r="AE278" s="8"/>
     </row>
-    <row r="279" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -6341,7 +4328,7 @@
       <c r="AC279" s="8"/>
       <c r="AE279" s="8"/>
     </row>
-    <row r="280" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -6352,7 +4339,7 @@
       <c r="AC280" s="8"/>
       <c r="AE280" s="8"/>
     </row>
-    <row r="281" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -6363,7 +4350,7 @@
       <c r="AC281" s="8"/>
       <c r="AE281" s="8"/>
     </row>
-    <row r="282" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -6374,7 +4361,7 @@
       <c r="AC282" s="8"/>
       <c r="AE282" s="8"/>
     </row>
-    <row r="283" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -6385,7 +4372,7 @@
       <c r="AC283" s="8"/>
       <c r="AE283" s="8"/>
     </row>
-    <row r="284" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -6396,7 +4383,7 @@
       <c r="AC284" s="8"/>
       <c r="AE284" s="8"/>
     </row>
-    <row r="285" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -6407,7 +4394,7 @@
       <c r="AC285" s="8"/>
       <c r="AE285" s="8"/>
     </row>
-    <row r="286" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -6418,7 +4405,7 @@
       <c r="AC286" s="8"/>
       <c r="AE286" s="8"/>
     </row>
-    <row r="287" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -6429,7 +4416,7 @@
       <c r="AC287" s="8"/>
       <c r="AE287" s="8"/>
     </row>
-    <row r="288" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -6440,7 +4427,7 @@
       <c r="AC288" s="8"/>
       <c r="AE288" s="8"/>
     </row>
-    <row r="289" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -6451,7 +4438,7 @@
       <c r="AC289" s="8"/>
       <c r="AE289" s="8"/>
     </row>
-    <row r="290" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -6462,7 +4449,7 @@
       <c r="AC290" s="8"/>
       <c r="AE290" s="8"/>
     </row>
-    <row r="291" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -6473,7 +4460,7 @@
       <c r="AC291" s="8"/>
       <c r="AE291" s="8"/>
     </row>
-    <row r="292" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -6484,7 +4471,7 @@
       <c r="AC292" s="8"/>
       <c r="AE292" s="8"/>
     </row>
-    <row r="293" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -6495,7 +4482,7 @@
       <c r="AC293" s="8"/>
       <c r="AE293" s="8"/>
     </row>
-    <row r="294" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -6506,7 +4493,7 @@
       <c r="AC294" s="8"/>
       <c r="AE294" s="8"/>
     </row>
-    <row r="295" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -6517,7 +4504,7 @@
       <c r="AC295" s="8"/>
       <c r="AE295" s="8"/>
     </row>
-    <row r="296" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -6528,7 +4515,7 @@
       <c r="AC296" s="8"/>
       <c r="AE296" s="8"/>
     </row>
-    <row r="297" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -6539,7 +4526,7 @@
       <c r="AC297" s="8"/>
       <c r="AE297" s="8"/>
     </row>
-    <row r="298" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -6550,7 +4537,7 @@
       <c r="AC298" s="8"/>
       <c r="AE298" s="8"/>
     </row>
-    <row r="299" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -6561,7 +4548,7 @@
       <c r="AC299" s="8"/>
       <c r="AE299" s="8"/>
     </row>
-    <row r="300" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -6572,7 +4559,7 @@
       <c r="AC300" s="8"/>
       <c r="AE300" s="8"/>
     </row>
-    <row r="301" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -6583,7 +4570,7 @@
       <c r="AC301" s="8"/>
       <c r="AE301" s="8"/>
     </row>
-    <row r="302" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -6594,7 +4581,7 @@
       <c r="AC302" s="8"/>
       <c r="AE302" s="8"/>
     </row>
-    <row r="303" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -6605,7 +4592,7 @@
       <c r="AC303" s="8"/>
       <c r="AE303" s="8"/>
     </row>
-    <row r="304" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -6616,7 +4603,7 @@
       <c r="AC304" s="8"/>
       <c r="AE304" s="8"/>
     </row>
-    <row r="305" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -6627,7 +4614,7 @@
       <c r="AC305" s="8"/>
       <c r="AE305" s="8"/>
     </row>
-    <row r="306" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -6638,7 +4625,7 @@
       <c r="AC306" s="8"/>
       <c r="AE306" s="8"/>
     </row>
-    <row r="307" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -6649,7 +4636,7 @@
       <c r="AC307" s="8"/>
       <c r="AE307" s="8"/>
     </row>
-    <row r="308" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -6660,7 +4647,7 @@
       <c r="AC308" s="8"/>
       <c r="AE308" s="8"/>
     </row>
-    <row r="309" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -6671,7 +4658,7 @@
       <c r="AC309" s="8"/>
       <c r="AE309" s="8"/>
     </row>
-    <row r="310" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -6682,7 +4669,7 @@
       <c r="AC310" s="8"/>
       <c r="AE310" s="8"/>
     </row>
-    <row r="311" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -6693,7 +4680,7 @@
       <c r="AC311" s="8"/>
       <c r="AE311" s="8"/>
     </row>
-    <row r="312" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -6704,7 +4691,7 @@
       <c r="AC312" s="8"/>
       <c r="AE312" s="8"/>
     </row>
-    <row r="313" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -6715,7 +4702,7 @@
       <c r="AC313" s="8"/>
       <c r="AE313" s="8"/>
     </row>
-    <row r="314" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -6726,7 +4713,7 @@
       <c r="AC314" s="8"/>
       <c r="AE314" s="8"/>
     </row>
-    <row r="315" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -6737,7 +4724,7 @@
       <c r="AC315" s="8"/>
       <c r="AE315" s="8"/>
     </row>
-    <row r="316" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -6748,7 +4735,7 @@
       <c r="AC316" s="8"/>
       <c r="AE316" s="8"/>
     </row>
-    <row r="317" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -6759,7 +4746,7 @@
       <c r="AC317" s="8"/>
       <c r="AE317" s="8"/>
     </row>
-    <row r="318" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -6770,7 +4757,7 @@
       <c r="AC318" s="8"/>
       <c r="AE318" s="8"/>
     </row>
-    <row r="319" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -6781,7 +4768,7 @@
       <c r="AC319" s="8"/>
       <c r="AE319" s="8"/>
     </row>
-    <row r="320" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -6792,7 +4779,7 @@
       <c r="AC320" s="8"/>
       <c r="AE320" s="8"/>
     </row>
-    <row r="321" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -6803,7 +4790,7 @@
       <c r="AC321" s="8"/>
       <c r="AE321" s="8"/>
     </row>
-    <row r="322" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -6814,7 +4801,7 @@
       <c r="AC322" s="8"/>
       <c r="AE322" s="8"/>
     </row>
-    <row r="323" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -6825,7 +4812,7 @@
       <c r="AC323" s="8"/>
       <c r="AE323" s="8"/>
     </row>
-    <row r="324" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -6836,7 +4823,7 @@
       <c r="AC324" s="8"/>
       <c r="AE324" s="8"/>
     </row>
-    <row r="325" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -6847,7 +4834,7 @@
       <c r="AC325" s="8"/>
       <c r="AE325" s="8"/>
     </row>
-    <row r="326" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -6858,7 +4845,7 @@
       <c r="AC326" s="8"/>
       <c r="AE326" s="8"/>
     </row>
-    <row r="327" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -6869,7 +4856,7 @@
       <c r="AC327" s="8"/>
       <c r="AE327" s="8"/>
     </row>
-    <row r="328" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -6880,7 +4867,7 @@
       <c r="AC328" s="8"/>
       <c r="AE328" s="8"/>
     </row>
-    <row r="329" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -6891,7 +4878,7 @@
       <c r="AC329" s="8"/>
       <c r="AE329" s="8"/>
     </row>
-    <row r="330" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -6902,7 +4889,7 @@
       <c r="AC330" s="8"/>
       <c r="AE330" s="8"/>
     </row>
-    <row r="331" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -6913,7 +4900,7 @@
       <c r="AC331" s="8"/>
       <c r="AE331" s="8"/>
     </row>
-    <row r="332" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -6924,7 +4911,7 @@
       <c r="AC332" s="8"/>
       <c r="AE332" s="8"/>
     </row>
-    <row r="333" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -6935,7 +4922,7 @@
       <c r="AC333" s="8"/>
       <c r="AE333" s="8"/>
     </row>
-    <row r="334" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -6946,7 +4933,7 @@
       <c r="AC334" s="8"/>
       <c r="AE334" s="8"/>
     </row>
-    <row r="335" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -6957,7 +4944,7 @@
       <c r="AC335" s="8"/>
       <c r="AE335" s="8"/>
     </row>
-    <row r="336" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -6968,7 +4955,7 @@
       <c r="AC336" s="8"/>
       <c r="AE336" s="8"/>
     </row>
-    <row r="337" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -6979,7 +4966,7 @@
       <c r="AC337" s="8"/>
       <c r="AE337" s="8"/>
     </row>
-    <row r="338" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -6990,7 +4977,7 @@
       <c r="AC338" s="8"/>
       <c r="AE338" s="8"/>
     </row>
-    <row r="339" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -7001,7 +4988,7 @@
       <c r="AC339" s="8"/>
       <c r="AE339" s="8"/>
     </row>
-    <row r="340" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -7012,7 +4999,7 @@
       <c r="AC340" s="8"/>
       <c r="AE340" s="8"/>
     </row>
-    <row r="341" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="341" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -7023,7 +5010,7 @@
       <c r="AC341" s="8"/>
       <c r="AE341" s="8"/>
     </row>
-    <row r="342" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -7034,7 +5021,7 @@
       <c r="AC342" s="8"/>
       <c r="AE342" s="8"/>
     </row>
-    <row r="343" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -7045,7 +5032,7 @@
       <c r="AC343" s="8"/>
       <c r="AE343" s="8"/>
     </row>
-    <row r="344" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -7056,7 +5043,7 @@
       <c r="AC344" s="8"/>
       <c r="AE344" s="8"/>
     </row>
-    <row r="345" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -7067,7 +5054,7 @@
       <c r="AC345" s="8"/>
       <c r="AE345" s="8"/>
     </row>
-    <row r="346" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -7078,7 +5065,7 @@
       <c r="AC346" s="8"/>
       <c r="AE346" s="8"/>
     </row>
-    <row r="347" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -7089,7 +5076,7 @@
       <c r="AC347" s="8"/>
       <c r="AE347" s="8"/>
     </row>
-    <row r="348" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -7100,7 +5087,7 @@
       <c r="AC348" s="8"/>
       <c r="AE348" s="8"/>
     </row>
-    <row r="349" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -7111,7 +5098,7 @@
       <c r="AC349" s="8"/>
       <c r="AE349" s="8"/>
     </row>
-    <row r="350" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -7122,7 +5109,7 @@
       <c r="AC350" s="8"/>
       <c r="AE350" s="8"/>
     </row>
-    <row r="351" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -7133,7 +5120,7 @@
       <c r="AC351" s="8"/>
       <c r="AE351" s="8"/>
     </row>
-    <row r="352" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -7144,7 +5131,7 @@
       <c r="AC352" s="8"/>
       <c r="AE352" s="8"/>
     </row>
-    <row r="353" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -7155,7 +5142,7 @@
       <c r="AC353" s="8"/>
       <c r="AE353" s="8"/>
     </row>
-    <row r="354" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -7166,7 +5153,7 @@
       <c r="AC354" s="8"/>
       <c r="AE354" s="8"/>
     </row>
-    <row r="355" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -7177,7 +5164,7 @@
       <c r="AC355" s="8"/>
       <c r="AE355" s="8"/>
     </row>
-    <row r="356" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -7188,7 +5175,7 @@
       <c r="AC356" s="8"/>
       <c r="AE356" s="8"/>
     </row>
-    <row r="357" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -7199,7 +5186,7 @@
       <c r="AC357" s="8"/>
       <c r="AE357" s="8"/>
     </row>
-    <row r="358" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -7210,7 +5197,7 @@
       <c r="AC358" s="8"/>
       <c r="AE358" s="8"/>
     </row>
-    <row r="359" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="359" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -7221,7 +5208,7 @@
       <c r="AC359" s="8"/>
       <c r="AE359" s="8"/>
     </row>
-    <row r="360" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -7232,7 +5219,7 @@
       <c r="AC360" s="8"/>
       <c r="AE360" s="8"/>
     </row>
-    <row r="361" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -7243,7 +5230,7 @@
       <c r="AC361" s="8"/>
       <c r="AE361" s="8"/>
     </row>
-    <row r="362" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -7254,7 +5241,7 @@
       <c r="AC362" s="8"/>
       <c r="AE362" s="8"/>
     </row>
-    <row r="363" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -7265,7 +5252,7 @@
       <c r="AC363" s="8"/>
       <c r="AE363" s="8"/>
     </row>
-    <row r="364" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -7276,7 +5263,7 @@
       <c r="AC364" s="8"/>
       <c r="AE364" s="8"/>
     </row>
-    <row r="365" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -7287,7 +5274,7 @@
       <c r="AC365" s="8"/>
       <c r="AE365" s="8"/>
     </row>
-    <row r="366" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -7298,7 +5285,7 @@
       <c r="AC366" s="8"/>
       <c r="AE366" s="8"/>
     </row>
-    <row r="367" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -7309,7 +5296,7 @@
       <c r="AC367" s="8"/>
       <c r="AE367" s="8"/>
     </row>
-    <row r="368" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -7320,7 +5307,7 @@
       <c r="AC368" s="8"/>
       <c r="AE368" s="8"/>
     </row>
-    <row r="369" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -7331,7 +5318,7 @@
       <c r="AC369" s="8"/>
       <c r="AE369" s="8"/>
     </row>
-    <row r="370" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -7342,7 +5329,7 @@
       <c r="AC370" s="8"/>
       <c r="AE370" s="8"/>
     </row>
-    <row r="371" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -7353,7 +5340,7 @@
       <c r="AC371" s="8"/>
       <c r="AE371" s="8"/>
     </row>
-    <row r="372" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -7364,7 +5351,7 @@
       <c r="AC372" s="8"/>
       <c r="AE372" s="8"/>
     </row>
-    <row r="373" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -7375,7 +5362,7 @@
       <c r="AC373" s="8"/>
       <c r="AE373" s="8"/>
     </row>
-    <row r="374" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -7386,7 +5373,7 @@
       <c r="AC374" s="8"/>
       <c r="AE374" s="8"/>
     </row>
-    <row r="375" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -7397,7 +5384,7 @@
       <c r="AC375" s="8"/>
       <c r="AE375" s="8"/>
     </row>
-    <row r="376" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -7408,7 +5395,7 @@
       <c r="AC376" s="8"/>
       <c r="AE376" s="8"/>
     </row>
-    <row r="377" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -7420,8 +5407,12 @@
       <c r="AE377" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>